--- a/output/semantic_institutions_indices.xlsx
+++ b/output/semantic_institutions_indices.xlsx
@@ -555,37 +555,37 @@
         <v>44197</v>
       </c>
       <c r="B2" t="n">
-        <v>754</v>
+        <v>4203</v>
       </c>
       <c r="C2" t="n">
-        <v>41.5168942440401</v>
+        <v>64.6874322080444</v>
       </c>
       <c r="D2" t="n">
-        <v>61.3651536980169</v>
+        <v>43.3075738028609</v>
       </c>
       <c r="E2" t="n">
-        <v>9.08350057251247</v>
+        <v>19.0081107028457</v>
       </c>
       <c r="F2" t="n">
-        <v>25.3472073234307</v>
+        <v>14.1275061387891</v>
       </c>
       <c r="G2" t="n">
-        <v>76.5643505129198</v>
+        <v>47.9610729317444</v>
       </c>
       <c r="H2" t="n">
-        <v>45.141077121205</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>19.4612113022144</v>
+        <v>18.3857388332344</v>
       </c>
       <c r="J2" t="n">
-        <v>52.3096129837703</v>
+        <v>38.5735916115725</v>
       </c>
       <c r="K2" t="n">
-        <v>39.80920389983</v>
+        <v>60.2099745037051</v>
       </c>
       <c r="L2" t="n">
-        <v>52.8264262718613</v>
+        <v>0</v>
       </c>
       <c r="M2"/>
       <c r="N2"/>
@@ -596,46 +596,46 @@
         <v>44228</v>
       </c>
       <c r="B3" t="n">
-        <v>498</v>
+        <v>2274</v>
       </c>
       <c r="C3" t="n">
-        <v>28.024284013154</v>
+        <v>78.7106271057658</v>
       </c>
       <c r="D3" t="n">
-        <v>58.8860178007465</v>
+        <v>35.6776994202272</v>
       </c>
       <c r="E3" t="n">
-        <v>8.10453631798387</v>
+        <v>45.7101527192358</v>
       </c>
       <c r="F3" t="n">
-        <v>27.5393655368619</v>
+        <v>35.1581857042761</v>
       </c>
       <c r="G3" t="n">
-        <v>75.5809426413425</v>
+        <v>62.2653101158357</v>
       </c>
       <c r="H3" t="n">
-        <v>38.8355670119057</v>
+        <v>84.0525157474089</v>
       </c>
       <c r="I3" t="n">
-        <v>76.2622372141895</v>
+        <v>57.3163829264558</v>
       </c>
       <c r="J3" t="n">
-        <v>75.1317077719241</v>
+        <v>55.2965623682916</v>
       </c>
       <c r="K3" t="n">
-        <v>7.66309161164923</v>
+        <v>58.2947227697254</v>
       </c>
       <c r="L3" t="n">
-        <v>84.0235040416351</v>
+        <v>49.1462156854588</v>
       </c>
       <c r="M3" t="n">
-        <v>36.8975352160874</v>
+        <v>81.1326864379367</v>
       </c>
       <c r="N3" t="n">
-        <v>52.4442509523493</v>
+        <v>34.0031787206207</v>
       </c>
       <c r="O3" t="n">
-        <v>7.89165007698804</v>
+        <v>54.9060878073605</v>
       </c>
     </row>
     <row r="4">
@@ -643,46 +643,46 @@
         <v>44256</v>
       </c>
       <c r="B4" t="n">
-        <v>562</v>
+        <v>2650</v>
       </c>
       <c r="C4" t="n">
-        <v>41.1514273910681</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>37.0815813582844</v>
+        <v>23.0242629387739</v>
       </c>
       <c r="E4" t="n">
-        <v>6.48691334046778</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>20.7646488160581</v>
+        <v>13.9039676678892</v>
       </c>
       <c r="G4" t="n">
-        <v>79.0318779460524</v>
+        <v>53.3146102730058</v>
       </c>
       <c r="H4" t="n">
-        <v>25.316215942658</v>
+        <v>78.7369835294448</v>
       </c>
       <c r="I4" t="n">
-        <v>30.6627272459232</v>
+        <v>31.3074528041619</v>
       </c>
       <c r="J4" t="n">
-        <v>71.4490353193966</v>
+        <v>21.4325982203308</v>
       </c>
       <c r="K4" t="n">
-        <v>58.683844472621</v>
+        <v>66.5003513703443</v>
       </c>
       <c r="L4" t="n">
-        <v>70.9398011620032</v>
+        <v>41.7287272808343</v>
       </c>
       <c r="M4" t="n">
-        <v>30.4680097344836</v>
+        <v>84.4639435737048</v>
       </c>
       <c r="N4" t="n">
-        <v>44.917985343073</v>
+        <v>36.1842088218635</v>
       </c>
       <c r="O4" t="n">
-        <v>5.75201795696478</v>
+        <v>60.9656557116746</v>
       </c>
     </row>
     <row r="5">
@@ -690,46 +690,46 @@
         <v>44287</v>
       </c>
       <c r="B5" t="n">
-        <v>496</v>
+        <v>2313</v>
       </c>
       <c r="C5" t="n">
-        <v>22.2283177992286</v>
+        <v>74.6812036153485</v>
       </c>
       <c r="D5" t="n">
-        <v>38.7863568701882</v>
+        <v>49.8506641065895</v>
       </c>
       <c r="E5" t="n">
-        <v>2.66460421244269</v>
+        <v>37.1868144157879</v>
       </c>
       <c r="F5" t="n">
-        <v>23.5635756010426</v>
+        <v>100</v>
       </c>
       <c r="G5" t="n">
-        <v>80.3124239412467</v>
+        <v>82.7575853444236</v>
       </c>
       <c r="H5" t="n">
-        <v>21.9333308456562</v>
+        <v>57.9218326842764</v>
       </c>
       <c r="I5" t="n">
-        <v>100</v>
+        <v>27.841701340428</v>
       </c>
       <c r="J5" t="n">
-        <v>94.1011235955056</v>
+        <v>45.8028429444477</v>
       </c>
       <c r="K5" t="n">
-        <v>28.6281410998996</v>
+        <v>47.2898819012827</v>
       </c>
       <c r="L5" t="n">
-        <v>85.3691214511204</v>
+        <v>50.7545431512489</v>
       </c>
       <c r="M5" t="n">
-        <v>34.7120710124902</v>
+        <v>90.133487637667</v>
       </c>
       <c r="N5" t="n">
-        <v>34.5331605289512</v>
+        <v>31.5074405266891</v>
       </c>
       <c r="O5" t="n">
-        <v>6.40519162108298</v>
+        <v>56.344363212777</v>
       </c>
     </row>
     <row r="6">
@@ -737,46 +737,46 @@
         <v>44317</v>
       </c>
       <c r="B6" t="n">
-        <v>480</v>
+        <v>1703</v>
       </c>
       <c r="C6" t="n">
-        <v>40.756467847174</v>
+        <v>95.7192592976526</v>
       </c>
       <c r="D6" t="n">
-        <v>27.7315433583811</v>
+        <v>21.6473945347039</v>
       </c>
       <c r="E6" t="n">
-        <v>10.0640573103385</v>
+        <v>31.8462752225432</v>
       </c>
       <c r="F6" t="n">
-        <v>7.08654710607011</v>
+        <v>65.2408483163306</v>
       </c>
       <c r="G6" t="n">
-        <v>57.0179577452952</v>
+        <v>100</v>
       </c>
       <c r="H6" t="n">
-        <v>30.8537499005423</v>
+        <v>77.7749896504262</v>
       </c>
       <c r="I6" t="n">
-        <v>59.9237489795564</v>
+        <v>39.9036278895046</v>
       </c>
       <c r="J6" t="n">
-        <v>41.8193012159458</v>
+        <v>63.9087508680883</v>
       </c>
       <c r="K6" t="n">
-        <v>33.9373679725915</v>
+        <v>46.3157777457746</v>
       </c>
       <c r="L6" t="n">
-        <v>80.9382177568757</v>
+        <v>60.9464422447062</v>
       </c>
       <c r="M6" t="n">
-        <v>32.6056964755099</v>
+        <v>86.1523377860164</v>
       </c>
       <c r="N6" t="n">
-        <v>35.0955727092046</v>
+        <v>38.1546809548833</v>
       </c>
       <c r="O6" t="n">
-        <v>5.88844073539725</v>
+        <v>49.2934557791355</v>
       </c>
     </row>
     <row r="7">
@@ -784,46 +784,46 @@
         <v>44348</v>
       </c>
       <c r="B7" t="n">
-        <v>382</v>
+        <v>2274</v>
       </c>
       <c r="C7" t="n">
-        <v>34.8323037801272</v>
+        <v>88.0565504450481</v>
       </c>
       <c r="D7" t="n">
-        <v>38.7688178990446</v>
+        <v>42.9659842233566</v>
       </c>
       <c r="E7" t="n">
-        <v>4.93666068341058</v>
+        <v>78.8472776990755</v>
       </c>
       <c r="F7" t="n">
-        <v>15.1133514591846</v>
+        <v>14.825586214209</v>
       </c>
       <c r="G7" t="n">
-        <v>72.5629185490667</v>
+        <v>21.7961267159929</v>
       </c>
       <c r="H7" t="n">
-        <v>12.0004442311571</v>
+        <v>30.7715828097042</v>
       </c>
       <c r="I7" t="n">
-        <v>36.4035170281881</v>
+        <v>42.3097322859385</v>
       </c>
       <c r="J7" t="n">
-        <v>88.2966292134832</v>
+        <v>34.9139412552443</v>
       </c>
       <c r="K7" t="n">
-        <v>0.287710429464734</v>
+        <v>51.2436748702526</v>
       </c>
       <c r="L7" t="n">
-        <v>93.1888764258767</v>
+        <v>48.2061803492051</v>
       </c>
       <c r="M7" t="n">
-        <v>33.843085568991</v>
+        <v>82.5742853019141</v>
       </c>
       <c r="N7" t="n">
-        <v>36.6941422335063</v>
+        <v>41.4229752324709</v>
       </c>
       <c r="O7" t="n">
-        <v>6.36705484047297</v>
+        <v>49.8326568670904</v>
       </c>
     </row>
     <row r="8">
@@ -831,46 +831,46 @@
         <v>44378</v>
       </c>
       <c r="B8" t="n">
-        <v>570</v>
+        <v>2571</v>
       </c>
       <c r="C8" t="n">
-        <v>25.9404850796717</v>
+        <v>63.9470461630416</v>
       </c>
       <c r="D8" t="n">
-        <v>43.5820654430933</v>
+        <v>59.655546939352</v>
       </c>
       <c r="E8" t="n">
-        <v>4.10044652766987</v>
+        <v>38.8044176796524</v>
       </c>
       <c r="F8" t="n">
-        <v>23.2360492680928</v>
+        <v>10.2646890797907</v>
       </c>
       <c r="G8" t="n">
-        <v>89.2101954922143</v>
+        <v>20.9020796729044</v>
       </c>
       <c r="H8" t="n">
-        <v>31.0382774533926</v>
+        <v>47.8188983503382</v>
       </c>
       <c r="I8" t="n">
-        <v>79.3523279826893</v>
+        <v>10.7729485105945</v>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>59.8918355961216</v>
       </c>
       <c r="K8" t="n">
-        <v>12.7144321314888</v>
+        <v>15.1049724028729</v>
       </c>
       <c r="L8" t="n">
-        <v>83.3754280279134</v>
+        <v>40.8537951541874</v>
       </c>
       <c r="M8" t="n">
-        <v>24.8424449367691</v>
+        <v>56.6155085828244</v>
       </c>
       <c r="N8" t="n">
-        <v>37.6382172166083</v>
+        <v>34.2071770542362</v>
       </c>
       <c r="O8" t="n">
-        <v>3.57075695789057</v>
+        <v>46.4004002800675</v>
       </c>
     </row>
     <row r="9">
@@ -878,46 +878,46 @@
         <v>44409</v>
       </c>
       <c r="B9" t="n">
-        <v>517</v>
+        <v>959</v>
       </c>
       <c r="C9" t="n">
-        <v>13.7545459505084</v>
+        <v>17.8429291403834</v>
       </c>
       <c r="D9" t="n">
-        <v>30.563768307687</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1.67516366259126</v>
+        <v>21.5495054614747</v>
       </c>
       <c r="F9" t="n">
-        <v>13.717597992615</v>
+        <v>23.7992222147845</v>
       </c>
       <c r="G9" t="n">
-        <v>48.7252196071182</v>
+        <v>34.6493797351324</v>
       </c>
       <c r="H9" t="n">
-        <v>15.0185732752672</v>
+        <v>22.6063226516784</v>
       </c>
       <c r="I9" t="n">
-        <v>60.8055416047194</v>
+        <v>29.1154527114472</v>
       </c>
       <c r="J9" t="n">
-        <v>66.0260201064459</v>
+        <v>28.9072628601032</v>
       </c>
       <c r="K9" t="n">
-        <v>32.043196025458</v>
+        <v>46.4097645049269</v>
       </c>
       <c r="L9" t="n">
-        <v>92.4164787413008</v>
+        <v>88.4468545478751</v>
       </c>
       <c r="M9" t="n">
-        <v>22.1144029757238</v>
+        <v>46.3341636905</v>
       </c>
       <c r="N9" t="n">
-        <v>38.5968788697208</v>
+        <v>27.3377959473363</v>
       </c>
       <c r="O9" t="n">
-        <v>3.46091574870921</v>
+        <v>33.4779519557358</v>
       </c>
     </row>
     <row r="10">
@@ -925,46 +925,46 @@
         <v>44440</v>
       </c>
       <c r="B10" t="n">
-        <v>518</v>
+        <v>1700</v>
       </c>
       <c r="C10" t="n">
-        <v>26.6481778969913</v>
+        <v>57.212515768075</v>
       </c>
       <c r="D10" t="n">
-        <v>41.6448028583821</v>
+        <v>22.3578409026569</v>
       </c>
       <c r="E10" t="n">
-        <v>4.6071370558665</v>
+        <v>40.0799327260804</v>
       </c>
       <c r="F10" t="n">
-        <v>28.2578996530523</v>
+        <v>10.4061940382262</v>
       </c>
       <c r="G10" t="n">
-        <v>73.7447172210217</v>
+        <v>42.1536312307602</v>
       </c>
       <c r="H10" t="n">
-        <v>26.7817469060997</v>
+        <v>48.3476507569402</v>
       </c>
       <c r="I10" t="n">
-        <v>36.5204168862134</v>
+        <v>23.2807917633612</v>
       </c>
       <c r="J10" t="n">
-        <v>92.0256821829856</v>
+        <v>45.2629341056615</v>
       </c>
       <c r="K10" t="n">
-        <v>2.89478992370725</v>
+        <v>21.0709561407135</v>
       </c>
       <c r="L10" t="n">
-        <v>82.1760397167358</v>
+        <v>64.6662192208622</v>
       </c>
       <c r="M10" t="n">
-        <v>20.9129865296343</v>
+        <v>54.6590310976648</v>
       </c>
       <c r="N10" t="n">
-        <v>42.7091653875936</v>
+        <v>25.7723261125714</v>
       </c>
       <c r="O10" t="n">
-        <v>3.30909532519418</v>
+        <v>42.2537164254031</v>
       </c>
     </row>
     <row r="11">
@@ -972,46 +972,46 @@
         <v>44470</v>
       </c>
       <c r="B11" t="n">
-        <v>840</v>
+        <v>2247</v>
       </c>
       <c r="C11" t="n">
-        <v>22.3362357414033</v>
+        <v>88.921648384536</v>
       </c>
       <c r="D11" t="n">
-        <v>55.9189249967117</v>
+        <v>54.9591374350572</v>
       </c>
       <c r="E11" t="n">
-        <v>3.64498525712478</v>
+        <v>65.1317110886541</v>
       </c>
       <c r="F11" t="n">
-        <v>23.8847380616358</v>
+        <v>40.3705198030395</v>
       </c>
       <c r="G11" t="n">
-        <v>72.5125153640441</v>
+        <v>51.6613995477391</v>
       </c>
       <c r="H11" t="n">
-        <v>36.3315821122985</v>
+        <v>59.8602675554699</v>
       </c>
       <c r="I11" t="n">
-        <v>36.103629925734</v>
+        <v>52.7381606177707</v>
       </c>
       <c r="J11" t="n">
-        <v>48.8382240645795</v>
+        <v>74.1457021212981</v>
       </c>
       <c r="K11" t="n">
-        <v>23.8270830850225</v>
+        <v>40.8340284117404</v>
       </c>
       <c r="L11" t="n">
-        <v>62.8986919337781</v>
+        <v>43.77720090988</v>
       </c>
       <c r="M11" t="n">
-        <v>25.2039233166055</v>
+        <v>79.0520764475476</v>
       </c>
       <c r="N11" t="n">
-        <v>49.9520686971062</v>
+        <v>59.1056594459047</v>
       </c>
       <c r="O11" t="n">
-        <v>6.83877524861353</v>
+        <v>53.3611357288532</v>
       </c>
     </row>
     <row r="12">
@@ -1019,46 +1019,46 @@
         <v>44501</v>
       </c>
       <c r="B12" t="n">
-        <v>630</v>
+        <v>2544</v>
       </c>
       <c r="C12" t="n">
-        <v>26.6273563114218</v>
+        <v>91.0220651900317</v>
       </c>
       <c r="D12" t="n">
-        <v>52.2924782362247</v>
+        <v>100</v>
       </c>
       <c r="E12" t="n">
-        <v>12.2642034328493</v>
+        <v>54.8717633718252</v>
       </c>
       <c r="F12" t="n">
-        <v>25.2297881565905</v>
+        <v>25.7225602121821</v>
       </c>
       <c r="G12" t="n">
-        <v>69.6640470666728</v>
+        <v>13.4454118077717</v>
       </c>
       <c r="H12" t="n">
-        <v>32.1911353073907</v>
+        <v>57.6494155238763</v>
       </c>
       <c r="I12" t="n">
-        <v>36.103629925734</v>
+        <v>34.0886966460411</v>
       </c>
       <c r="J12" t="n">
-        <v>31.6404494382022</v>
+        <v>55.8841035694277</v>
       </c>
       <c r="K12" t="n">
-        <v>2.97951889825214</v>
+        <v>43.8044624033731</v>
       </c>
       <c r="L12" t="n">
-        <v>72.8484209686368</v>
+        <v>31.2810974347385</v>
       </c>
       <c r="M12" t="n">
-        <v>20.0721974797179</v>
+        <v>91.4597037737114</v>
       </c>
       <c r="N12" t="n">
-        <v>53.181607056289</v>
+        <v>72.3648146142441</v>
       </c>
       <c r="O12" t="n">
-        <v>7.15872859918094</v>
+        <v>57.8623011311724</v>
       </c>
     </row>
     <row r="13">
@@ -1066,46 +1066,46 @@
         <v>44531</v>
       </c>
       <c r="B13" t="n">
-        <v>660</v>
+        <v>1951</v>
       </c>
       <c r="C13" t="n">
-        <v>11.2530003863286</v>
+        <v>94.4353977465664</v>
       </c>
       <c r="D13" t="n">
-        <v>51.3334179359306</v>
+        <v>62.135306407675</v>
       </c>
       <c r="E13" t="n">
-        <v>5.56699710756873</v>
+        <v>53.5834289330378</v>
       </c>
       <c r="F13" t="n">
-        <v>26.9954140722318</v>
+        <v>40.1544202662285</v>
       </c>
       <c r="G13" t="n">
-        <v>100</v>
+        <v>49.1633698253419</v>
       </c>
       <c r="H13" t="n">
-        <v>34.6080468394421</v>
+        <v>61.7333914796001</v>
       </c>
       <c r="I13" t="n">
-        <v>52.826530112758</v>
+        <v>74.638657352243</v>
       </c>
       <c r="J13" t="n">
-        <v>5.7935393258427</v>
+        <v>58.6660744210967</v>
       </c>
       <c r="K13" t="n">
-        <v>9.84795768022296</v>
+        <v>49.3405151438637</v>
       </c>
       <c r="L13" t="n">
-        <v>81.0577352675454</v>
+        <v>51.4845676898555</v>
       </c>
       <c r="M13" t="n">
-        <v>16.0647254825067</v>
+        <v>73.653441654537</v>
       </c>
       <c r="N13" t="n">
-        <v>42.5729222991518</v>
+        <v>72.617305280453</v>
       </c>
       <c r="O13" t="n">
-        <v>6.48905816713625</v>
+        <v>40.1616839875877</v>
       </c>
     </row>
     <row r="14">
@@ -1113,46 +1113,46 @@
         <v>44562</v>
       </c>
       <c r="B14" t="n">
-        <v>782</v>
+        <v>1819</v>
       </c>
       <c r="C14" t="n">
-        <v>10.3138197497697</v>
+        <v>35.502862027013</v>
       </c>
       <c r="D14" t="n">
-        <v>24.0928707253001</v>
+        <v>55.716609433684</v>
       </c>
       <c r="E14" t="n">
-        <v>1.6359739609907</v>
+        <v>12.0298596579001</v>
       </c>
       <c r="F14" t="n">
-        <v>11.3903460686277</v>
+        <v>43.0743228166427</v>
       </c>
       <c r="G14" t="n">
-        <v>64.00170786509</v>
+        <v>42.5077575532148</v>
       </c>
       <c r="H14" t="n">
-        <v>15.7052176552205</v>
+        <v>75.8804756928487</v>
       </c>
       <c r="I14" t="n">
-        <v>62.1397951218875</v>
+        <v>34.8410844883725</v>
       </c>
       <c r="J14" t="n">
-        <v>81.7495987158909</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>30.8013936855118</v>
+        <v>45.3642719525335</v>
       </c>
       <c r="L14" t="n">
-        <v>76.4568938040256</v>
+        <v>62.5266716005671</v>
       </c>
       <c r="M14" t="n">
-        <v>13.830018574373</v>
+        <v>58.0645069567018</v>
       </c>
       <c r="N14" t="n">
-        <v>42.6362650608306</v>
+        <v>56.5933176657601</v>
       </c>
       <c r="O14" t="n">
-        <v>3.90647717934454</v>
+        <v>26.4981515390907</v>
       </c>
     </row>
     <row r="15">
@@ -1160,46 +1160,46 @@
         <v>44593</v>
       </c>
       <c r="B15" t="n">
-        <v>746</v>
+        <v>2937</v>
       </c>
       <c r="C15" t="n">
-        <v>19.9232355870207</v>
+        <v>44.2552610965259</v>
       </c>
       <c r="D15" t="n">
-        <v>52.4825065212612</v>
+        <v>51.9280371559211</v>
       </c>
       <c r="E15" t="n">
-        <v>4.5164604694742</v>
+        <v>13.8811660263342</v>
       </c>
       <c r="F15" t="n">
-        <v>26.7011915303125</v>
+        <v>67.041355388738</v>
       </c>
       <c r="G15" t="n">
-        <v>91.609003124497</v>
+        <v>17.7647982234992</v>
       </c>
       <c r="H15" t="n">
-        <v>24.762955463056</v>
+        <v>72.1368943256139</v>
       </c>
       <c r="I15" t="n">
-        <v>32.3709044244516</v>
+        <v>36.2552830931719</v>
       </c>
       <c r="J15" t="n">
-        <v>24.5425361155698</v>
+        <v>24.4904097341116</v>
       </c>
       <c r="K15" t="n">
-        <v>24.9579423086835</v>
+        <v>71.4781744821146</v>
       </c>
       <c r="L15" t="n">
-        <v>69.6482769688036</v>
+        <v>40.4889500738944</v>
       </c>
       <c r="M15" t="n">
-        <v>16.788527888374</v>
+        <v>45.0332909374646</v>
       </c>
       <c r="N15" t="n">
-        <v>38.4290179492997</v>
+        <v>47.863484491734</v>
       </c>
       <c r="O15" t="n">
-        <v>3.7176545776391</v>
+        <v>21.9811215483759</v>
       </c>
     </row>
     <row r="16">
@@ -1207,46 +1207,46 @@
         <v>44621</v>
       </c>
       <c r="B16" t="n">
-        <v>628</v>
+        <v>1926</v>
       </c>
       <c r="C16" t="n">
-        <v>20.1285283283317</v>
+        <v>55.3417496888549</v>
       </c>
       <c r="D16" t="n">
-        <v>38.7116766013379</v>
+        <v>35.9458068855967</v>
       </c>
       <c r="E16" t="n">
-        <v>5.0005293024524</v>
+        <v>40.0323389608934</v>
       </c>
       <c r="F16" t="n">
-        <v>26.738379473336</v>
+        <v>64.6934555548576</v>
       </c>
       <c r="G16" t="n">
-        <v>96.0476911909159</v>
+        <v>46.3200757665996</v>
       </c>
       <c r="H16" t="n">
-        <v>22.9388107514689</v>
+        <v>64.9860202245547</v>
       </c>
       <c r="I16" t="n">
-        <v>77.5610382653493</v>
+        <v>29.1836487048338</v>
       </c>
       <c r="J16" t="n">
-        <v>61.6413028018774</v>
+        <v>52.5040107332998</v>
       </c>
       <c r="K16" t="n">
-        <v>12.6040827965552</v>
+        <v>95.3385743339835</v>
       </c>
       <c r="L16" t="n">
-        <v>78.679852869424</v>
+        <v>62.7814400587585</v>
       </c>
       <c r="M16" t="n">
-        <v>21.1846335259276</v>
+        <v>51.5516806889086</v>
       </c>
       <c r="N16" t="n">
-        <v>42.0098898533282</v>
+        <v>37.3995807218876</v>
       </c>
       <c r="O16" t="n">
-        <v>4.16943570263636</v>
+        <v>17.9711683290759</v>
       </c>
     </row>
     <row r="17">
@@ -1254,46 +1254,46 @@
         <v>44652</v>
       </c>
       <c r="B17" t="n">
-        <v>747</v>
+        <v>1844</v>
       </c>
       <c r="C17" t="n">
-        <v>23.5021366624304</v>
+        <v>55.0580312813448</v>
       </c>
       <c r="D17" t="n">
-        <v>34.8354864373854</v>
+        <v>24.324898124145</v>
       </c>
       <c r="E17" t="n">
-        <v>2.99131733598248</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>38.5376506959289</v>
+        <v>82.6835804861015</v>
       </c>
       <c r="G17" t="n">
-        <v>94.7323802933645</v>
+        <v>59.9019523547756</v>
       </c>
       <c r="H17" t="n">
-        <v>30.464389353283</v>
+        <v>50.5645819738467</v>
       </c>
       <c r="I17" t="n">
-        <v>22.3812241305381</v>
+        <v>37.5822695021515</v>
       </c>
       <c r="J17" t="n">
-        <v>78.1123595505618</v>
+        <v>35.358864305287</v>
       </c>
       <c r="K17" t="n">
-        <v>1.58200123377075</v>
+        <v>23.4604719795489</v>
       </c>
       <c r="L17" t="n">
-        <v>68.5877298450287</v>
+        <v>56.5647160001494</v>
       </c>
       <c r="M17" t="n">
-        <v>17.8839471134459</v>
+        <v>52.7839378865467</v>
       </c>
       <c r="N17" t="n">
-        <v>24.5157210129078</v>
+        <v>27.5449928297577</v>
       </c>
       <c r="O17" t="n">
-        <v>2.66394887947829</v>
+        <v>29.2527385084346</v>
       </c>
     </row>
     <row r="18">
@@ -1301,46 +1301,46 @@
         <v>44682</v>
       </c>
       <c r="B18" t="n">
-        <v>716</v>
+        <v>1604</v>
       </c>
       <c r="C18" t="n">
-        <v>10.0211763495757</v>
+        <v>47.9520326894402</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>22.3642734795315</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>47.7258765644104</v>
       </c>
       <c r="F18" t="n">
-        <v>25.4675621600617</v>
+        <v>58.2378401312241</v>
       </c>
       <c r="G18" t="n">
-        <v>83.356402410542</v>
+        <v>73.9525563211631</v>
       </c>
       <c r="H18" t="n">
-        <v>21.1352300584139</v>
+        <v>56.2463876103903</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>64.9544084061316</v>
       </c>
       <c r="J18" t="n">
-        <v>65.6522567130071</v>
+        <v>32.688516661797</v>
       </c>
       <c r="K18" t="n">
-        <v>43.2700396792537</v>
+        <v>39.0290349319954</v>
       </c>
       <c r="L18" t="n">
-        <v>83.0800477555614</v>
+        <v>70.7880928909114</v>
       </c>
       <c r="M18" t="n">
-        <v>20.5843661829522</v>
+        <v>46.7789578167208</v>
       </c>
       <c r="N18" t="n">
-        <v>21.6469013463315</v>
+        <v>32.0786897146796</v>
       </c>
       <c r="O18" t="n">
-        <v>7.58054376820713</v>
+        <v>20.9484973900542</v>
       </c>
     </row>
     <row r="19">
@@ -1348,46 +1348,46 @@
         <v>44713</v>
       </c>
       <c r="B19" t="n">
-        <v>700</v>
+        <v>2055</v>
       </c>
       <c r="C19" t="n">
-        <v>28.2297855368506</v>
+        <v>37.3268094793774</v>
       </c>
       <c r="D19" t="n">
-        <v>30.1052176016089</v>
+        <v>49.5468975403624</v>
       </c>
       <c r="E19" t="n">
-        <v>19.7503139686389</v>
+        <v>15.1196156057522</v>
       </c>
       <c r="F19" t="n">
-        <v>16.4059034989533</v>
+        <v>20.5325927143217</v>
       </c>
       <c r="G19" t="n">
-        <v>45.6191342682533</v>
+        <v>32.0741549469238</v>
       </c>
       <c r="H19" t="n">
-        <v>32.4976267856487</v>
+        <v>16.9513772419699</v>
       </c>
       <c r="I19" t="n">
-        <v>4.60048981293315</v>
+        <v>21.1135710191773</v>
       </c>
       <c r="J19" t="n">
-        <v>50.5395483368562</v>
+        <v>73.8159694745481</v>
       </c>
       <c r="K19" t="n">
-        <v>17.3376909246293</v>
+        <v>23.7091884627419</v>
       </c>
       <c r="L19" t="n">
-        <v>77.9142743656448</v>
+        <v>60.9557028835879</v>
       </c>
       <c r="M19" t="n">
-        <v>17.5518572828587</v>
+        <v>52.6730109563188</v>
       </c>
       <c r="N19" t="n">
-        <v>23.3965355734246</v>
+        <v>40.5423253835211</v>
       </c>
       <c r="O19" t="n">
-        <v>8.47944451509722</v>
+        <v>36.6321521403033</v>
       </c>
     </row>
     <row r="20">
@@ -1395,46 +1395,46 @@
         <v>44743</v>
       </c>
       <c r="B20" t="n">
-        <v>591</v>
+        <v>1705</v>
       </c>
       <c r="C20" t="n">
-        <v>14.4046099621497</v>
+        <v>72.7401907001387</v>
       </c>
       <c r="D20" t="n">
-        <v>40.0843891186647</v>
+        <v>49.7158051306693</v>
       </c>
       <c r="E20" t="n">
-        <v>5.68801957665274</v>
+        <v>47.0509642507473</v>
       </c>
       <c r="F20" t="n">
-        <v>15.4541850176945</v>
+        <v>63.784441057865</v>
       </c>
       <c r="G20" t="n">
-        <v>88.2706073391905</v>
+        <v>43.3858462980817</v>
       </c>
       <c r="H20" t="n">
-        <v>26.1645020067392</v>
+        <v>32.4945912420535</v>
       </c>
       <c r="I20" t="n">
-        <v>32.49157701443</v>
+        <v>26.3069448404584</v>
       </c>
       <c r="J20" t="n">
-        <v>43.8696135325349</v>
+        <v>71.6385807945351</v>
       </c>
       <c r="K20" t="n">
-        <v>40.9970226898588</v>
+        <v>62.5993368271155</v>
       </c>
       <c r="L20" t="n">
-        <v>88.0089240069977</v>
+        <v>62.1101442747977</v>
       </c>
       <c r="M20" t="n">
-        <v>16.4459583484602</v>
+        <v>36.6890000598387</v>
       </c>
       <c r="N20" t="n">
-        <v>56.7298689067579</v>
+        <v>56.4089704565725</v>
       </c>
       <c r="O20" t="n">
-        <v>8.86515959315935</v>
+        <v>22.5989674244976</v>
       </c>
     </row>
     <row r="21">
@@ -1442,46 +1442,46 @@
         <v>44774</v>
       </c>
       <c r="B21" t="n">
-        <v>586</v>
+        <v>1843</v>
       </c>
       <c r="C21" t="n">
-        <v>6.70347954638041</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>100</v>
+        <v>69.9642086986858</v>
       </c>
       <c r="E21" t="n">
-        <v>1.15714523418641</v>
+        <v>5.62632241699328</v>
       </c>
       <c r="F21" t="n">
-        <v>8.06240650208894</v>
+        <v>26.2293463776055</v>
       </c>
       <c r="G21" t="n">
-        <v>63.7754563876849</v>
+        <v>28.5205131771321</v>
       </c>
       <c r="H21" t="n">
-        <v>15.1998934222603</v>
+        <v>15.6402490881602</v>
       </c>
       <c r="I21" t="n">
-        <v>14.8479013644586</v>
+        <v>7.85739212618914</v>
       </c>
       <c r="J21" t="n">
-        <v>52.7011235955056</v>
+        <v>6.27753163092478</v>
       </c>
       <c r="K21" t="n">
-        <v>17.5630237285367</v>
+        <v>93.4201165337001</v>
       </c>
       <c r="L21" t="n">
-        <v>84.5403465350859</v>
+        <v>73.1661679804285</v>
       </c>
       <c r="M21" t="n">
-        <v>11.4503587448381</v>
+        <v>35.9132090645552</v>
       </c>
       <c r="N21" t="n">
-        <v>64.496073958083</v>
+        <v>61.0922502575371</v>
       </c>
       <c r="O21" t="n">
-        <v>2.80040447459748</v>
+        <v>26.6992947089946</v>
       </c>
     </row>
     <row r="22">
@@ -1489,46 +1489,46 @@
         <v>44805</v>
       </c>
       <c r="B22" t="n">
-        <v>663</v>
+        <v>2030</v>
       </c>
       <c r="C22" t="n">
-        <v>13.2429867259843</v>
+        <v>34.9994364935268</v>
       </c>
       <c r="D22" t="n">
-        <v>53.4038327555841</v>
+        <v>63.5967369432561</v>
       </c>
       <c r="E22" t="n">
-        <v>1.55604861295328</v>
+        <v>27.4205974592433</v>
       </c>
       <c r="F22" t="n">
-        <v>16.9713522865951</v>
+        <v>13.1800245704341</v>
       </c>
       <c r="G22" t="n">
-        <v>53.20486970501</v>
+        <v>1.73818331337527</v>
       </c>
       <c r="H22" t="n">
-        <v>23.0012258121442</v>
+        <v>30.2845700264635</v>
       </c>
       <c r="I22" t="n">
-        <v>28.0391928940421</v>
+        <v>26.4741338053969</v>
       </c>
       <c r="J22" t="n">
-        <v>55.5642403517342</v>
+        <v>70.0392675736736</v>
       </c>
       <c r="K22" t="n">
-        <v>23.8462333668257</v>
+        <v>42.1834637846221</v>
       </c>
       <c r="L22" t="n">
-        <v>81.091521316374</v>
+        <v>61.6052979936667</v>
       </c>
       <c r="M22" t="n">
-        <v>18.139161049667</v>
+        <v>29.3517045905631</v>
       </c>
       <c r="N22" t="n">
-        <v>67.8551573287337</v>
+        <v>70.4916721624761</v>
       </c>
       <c r="O22" t="n">
-        <v>2.90575842751322</v>
+        <v>25.0667488564121</v>
       </c>
     </row>
     <row r="23">
@@ -1536,46 +1536,46 @@
         <v>44835</v>
       </c>
       <c r="B23" t="n">
-        <v>1107</v>
+        <v>2538</v>
       </c>
       <c r="C23" t="n">
-        <v>34.4710168766364</v>
+        <v>53.0556772781626</v>
       </c>
       <c r="D23" t="n">
-        <v>50.1616392306171</v>
+        <v>77.9140708454864</v>
       </c>
       <c r="E23" t="n">
-        <v>6.00408143539997</v>
+        <v>42.1533266929998</v>
       </c>
       <c r="F23" t="n">
-        <v>50.2287317208061</v>
+        <v>10.2025134000711</v>
       </c>
       <c r="G23" t="n">
-        <v>64.9970084524613</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>45.9493039029028</v>
+        <v>17.5031618446405</v>
       </c>
       <c r="I23" t="n">
-        <v>18.6048705362256</v>
+        <v>31.6253823916434</v>
       </c>
       <c r="J23" t="n">
-        <v>25.6110274527974</v>
+        <v>47.1787414058231</v>
       </c>
       <c r="K23" t="n">
-        <v>12.6393108498213</v>
+        <v>34.5566420624359</v>
       </c>
       <c r="L23" t="n">
-        <v>37.3776881635001</v>
+        <v>47.7956378993274</v>
       </c>
       <c r="M23" t="n">
-        <v>25.8159285365715</v>
+        <v>38.8994809658137</v>
       </c>
       <c r="N23" t="n">
-        <v>41.9442745919064</v>
+        <v>63.1153041808814</v>
       </c>
       <c r="O23" t="n">
-        <v>6.02349446416015</v>
+        <v>39.4690091990863</v>
       </c>
     </row>
     <row r="24">
@@ -1583,46 +1583,46 @@
         <v>44866</v>
       </c>
       <c r="B24" t="n">
-        <v>726</v>
+        <v>1432</v>
       </c>
       <c r="C24" t="n">
-        <v>29.7337820070938</v>
+        <v>28.6433291257517</v>
       </c>
       <c r="D24" t="n">
-        <v>22.2673517895181</v>
+        <v>47.8351047539017</v>
       </c>
       <c r="E24" t="n">
-        <v>10.5103533441272</v>
+        <v>48.8331034450158</v>
       </c>
       <c r="F24" t="n">
-        <v>24.125634226211</v>
+        <v>17.7138803543869</v>
       </c>
       <c r="G24" t="n">
-        <v>47.2030998392629</v>
+        <v>32.8657570681646</v>
       </c>
       <c r="H24" t="n">
-        <v>41.4181810543869</v>
+        <v>48.4535537660674</v>
       </c>
       <c r="I24" t="n">
-        <v>40.4004230059057</v>
+        <v>20.6101072556122</v>
       </c>
       <c r="J24" t="n">
-        <v>62.3470661672909</v>
+        <v>87.1938844065742</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>28.7677991653482</v>
       </c>
       <c r="L24" t="n">
-        <v>71.9571733629821</v>
+        <v>76.6145076376181</v>
       </c>
       <c r="M24" t="n">
-        <v>30.9701886222332</v>
+        <v>58.0606943902077</v>
       </c>
       <c r="N24" t="n">
-        <v>28.8961097380834</v>
+        <v>67.32226404681</v>
       </c>
       <c r="O24" t="n">
-        <v>8.17773975383322</v>
+        <v>49.4934397888751</v>
       </c>
     </row>
     <row r="25">
@@ -1630,46 +1630,46 @@
         <v>44896</v>
       </c>
       <c r="B25" t="n">
-        <v>740</v>
+        <v>1301</v>
       </c>
       <c r="C25" t="n">
-        <v>28.7057669829694</v>
+        <v>92.4830767667086</v>
       </c>
       <c r="D25" t="n">
-        <v>14.259338194115</v>
+        <v>76.2176165410418</v>
       </c>
       <c r="E25" t="n">
-        <v>8.01878448197248</v>
+        <v>57.4938892286098</v>
       </c>
       <c r="F25" t="n">
-        <v>14.0412594578258</v>
+        <v>50.4605036736973</v>
       </c>
       <c r="G25" t="n">
-        <v>78.6415221649006</v>
+        <v>49.320004820193</v>
       </c>
       <c r="H25" t="n">
-        <v>37.2463827990158</v>
+        <v>75.0535237831457</v>
       </c>
       <c r="I25" t="n">
-        <v>66.6183895322554</v>
+        <v>43.718800507951</v>
       </c>
       <c r="J25" t="n">
-        <v>72.5451880801173</v>
+        <v>17.0829073199258</v>
       </c>
       <c r="K25" t="n">
-        <v>21.3487605795844</v>
+        <v>78.9230134341765</v>
       </c>
       <c r="L25" t="n">
-        <v>69.3385546848706</v>
+        <v>74.0056164325207</v>
       </c>
       <c r="M25" t="n">
-        <v>27.6958041207368</v>
+        <v>54.7305672521199</v>
       </c>
       <c r="N25" t="n">
-        <v>22.6359695387491</v>
+        <v>55.6774738374951</v>
       </c>
       <c r="O25" t="n">
-        <v>7.81745103352023</v>
+        <v>45.996453513223</v>
       </c>
     </row>
     <row r="26">
@@ -1677,46 +1677,46 @@
         <v>44927</v>
       </c>
       <c r="B26" t="n">
-        <v>1178</v>
+        <v>1986</v>
       </c>
       <c r="C26" t="n">
-        <v>24.6478633721473</v>
+        <v>43.0652958638994</v>
       </c>
       <c r="D26" t="n">
-        <v>31.3812186326141</v>
+        <v>42.9797002175418</v>
       </c>
       <c r="E26" t="n">
-        <v>4.923215274461</v>
+        <v>31.6623678660434</v>
       </c>
       <c r="F26" t="n">
-        <v>15.6728796549671</v>
+        <v>62.454110013607</v>
       </c>
       <c r="G26" t="n">
-        <v>65.5856075907006</v>
+        <v>32.7792006949532</v>
       </c>
       <c r="H26" t="n">
-        <v>58.5055013202458</v>
+        <v>60.1601071139667</v>
       </c>
       <c r="I26" t="n">
-        <v>45.6562697975202</v>
+        <v>17.9859171850849</v>
       </c>
       <c r="J26" t="n">
-        <v>65.1614279618831</v>
+        <v>15.4571692985444</v>
       </c>
       <c r="K26" t="n">
-        <v>44.6815665649602</v>
+        <v>34.2470696137898</v>
       </c>
       <c r="L26" t="n">
-        <v>45.1575215211064</v>
+        <v>66.5286635604371</v>
       </c>
       <c r="M26" t="n">
-        <v>25.9005995452752</v>
+        <v>72.4215042109121</v>
       </c>
       <c r="N26" t="n">
-        <v>19.2699136454802</v>
+        <v>67.9580553229932</v>
       </c>
       <c r="O26" t="n">
-        <v>5.04688577603533</v>
+        <v>43.09109722385</v>
       </c>
     </row>
     <row r="27">
@@ -1724,46 +1724,46 @@
         <v>44958</v>
       </c>
       <c r="B27" t="n">
-        <v>698</v>
+        <v>2087</v>
       </c>
       <c r="C27" t="n">
-        <v>24.3481682807087</v>
+        <v>81.7161400021282</v>
       </c>
       <c r="D27" t="n">
-        <v>12.1691841097115</v>
+        <v>84.676849210396</v>
       </c>
       <c r="E27" t="n">
-        <v>2.19865757167251</v>
+        <v>40.1170345768966</v>
       </c>
       <c r="F27" t="n">
-        <v>28.845738052626</v>
+        <v>18.3448914942091</v>
       </c>
       <c r="G27" t="n">
-        <v>67.0063830793106</v>
+        <v>2.12184502607681</v>
       </c>
       <c r="H27" t="n">
-        <v>22.4482819387014</v>
+        <v>64.0726857058979</v>
       </c>
       <c r="I27" t="n">
-        <v>42.4728102759487</v>
+        <v>43.6397397404751</v>
       </c>
       <c r="J27" t="n">
-        <v>78.1392506229138</v>
+        <v>35.1328138758629</v>
       </c>
       <c r="K27" t="n">
-        <v>30.5654764644765</v>
+        <v>21.8788666311312</v>
       </c>
       <c r="L27" t="n">
-        <v>77.0891125951202</v>
+        <v>54.5214480497168</v>
       </c>
       <c r="M27" t="n">
-        <v>24.3357702639436</v>
+        <v>74.9002791259167</v>
       </c>
       <c r="N27" t="n">
-        <v>19.4970602619712</v>
+        <v>58.5449711874794</v>
       </c>
       <c r="O27" t="n">
-        <v>4.37922226790199</v>
+        <v>44.8693266367246</v>
       </c>
     </row>
     <row r="28">
@@ -1771,46 +1771,46 @@
         <v>44986</v>
       </c>
       <c r="B28" t="n">
-        <v>846</v>
+        <v>2254</v>
       </c>
       <c r="C28" t="n">
-        <v>24.0112791389746</v>
+        <v>99.9194015117223</v>
       </c>
       <c r="D28" t="n">
-        <v>14.9407780435881</v>
+        <v>47.9783641345003</v>
       </c>
       <c r="E28" t="n">
-        <v>6.01579395757244</v>
+        <v>62.8285774672336</v>
       </c>
       <c r="F28" t="n">
-        <v>10.9169523774485</v>
+        <v>26.5718681375179</v>
       </c>
       <c r="G28" t="n">
-        <v>66.1327622877426</v>
+        <v>24.1618066966317</v>
       </c>
       <c r="H28" t="n">
-        <v>22.2312092288435</v>
+        <v>63.1216223353174</v>
       </c>
       <c r="I28" t="n">
-        <v>43.306401136368</v>
+        <v>28.2293487292052</v>
       </c>
       <c r="J28" t="n">
-        <v>45.4831460674157</v>
+        <v>50.1523925519721</v>
       </c>
       <c r="K28" t="n">
-        <v>45.2015893836965</v>
+        <v>45.5745450736132</v>
       </c>
       <c r="L28" t="n">
-        <v>67.2051434166174</v>
+        <v>48.4194878868281</v>
       </c>
       <c r="M28" t="n">
-        <v>34.0742083342093</v>
+        <v>82.958239274175</v>
       </c>
       <c r="N28" t="n">
-        <v>18.3981138721588</v>
+        <v>62.568478786893</v>
       </c>
       <c r="O28" t="n">
-        <v>18.4992331523431</v>
+        <v>52.7421252937208</v>
       </c>
     </row>
     <row r="29">
@@ -1818,46 +1818,46 @@
         <v>45017</v>
       </c>
       <c r="B29" t="n">
-        <v>1089</v>
+        <v>1892</v>
       </c>
       <c r="C29" t="n">
-        <v>53.8631775829445</v>
+        <v>67.2391763086744</v>
       </c>
       <c r="D29" t="n">
-        <v>28.0843794631768</v>
+        <v>55.0502230157829</v>
       </c>
       <c r="E29" t="n">
-        <v>47.2832479277844</v>
+        <v>55.2807638370322</v>
       </c>
       <c r="F29" t="n">
-        <v>31.6516136107228</v>
+        <v>33.2578180463731</v>
       </c>
       <c r="G29" t="n">
-        <v>51.4295172081905</v>
+        <v>14.1326800588512</v>
       </c>
       <c r="H29" t="n">
-        <v>43.264473263622</v>
+        <v>56.3945600909474</v>
       </c>
       <c r="I29" t="n">
-        <v>33.8156482997104</v>
+        <v>29.1794102185665</v>
       </c>
       <c r="J29" t="n">
-        <v>39.9529657695323</v>
+        <v>67.7560008495609</v>
       </c>
       <c r="K29" t="n">
-        <v>16.685305830212</v>
+        <v>50.9781652673757</v>
       </c>
       <c r="L29" t="n">
-        <v>35.6990538316336</v>
+        <v>62.3528092957321</v>
       </c>
       <c r="M29" t="n">
-        <v>46.2375249400175</v>
+        <v>74.9072599028466</v>
       </c>
       <c r="N29" t="n">
-        <v>26.1375555346747</v>
+        <v>43.6128031983138</v>
       </c>
       <c r="O29" t="n">
-        <v>29.2678446306237</v>
+        <v>62.1254553695887</v>
       </c>
     </row>
     <row r="30">
@@ -1865,46 +1865,46 @@
         <v>45047</v>
       </c>
       <c r="B30" t="n">
-        <v>1233</v>
+        <v>1225</v>
       </c>
       <c r="C30" t="n">
-        <v>60.8381180981332</v>
+        <v>57.563201888143</v>
       </c>
       <c r="D30" t="n">
-        <v>35.3875090972592</v>
+        <v>27.8098224446584</v>
       </c>
       <c r="E30" t="n">
-        <v>34.5044920065142</v>
+        <v>68.2670248045003</v>
       </c>
       <c r="F30" t="n">
-        <v>51.3867371422802</v>
+        <v>33.7245687292463</v>
       </c>
       <c r="G30" t="n">
-        <v>41.9317070349005</v>
+        <v>64.3006550374579</v>
       </c>
       <c r="H30" t="n">
-        <v>46.758767834224</v>
+        <v>11.080281739003</v>
       </c>
       <c r="I30" t="n">
-        <v>48.0084968187854</v>
+        <v>10.8505177848541</v>
       </c>
       <c r="J30" t="n">
-        <v>83.1892826274849</v>
+        <v>100</v>
       </c>
       <c r="K30" t="n">
-        <v>41.7662169900975</v>
+        <v>64.5939162734665</v>
       </c>
       <c r="L30" t="n">
-        <v>15.0527022076042</v>
+        <v>82.0437061294637</v>
       </c>
       <c r="M30" t="n">
-        <v>71.5670985603593</v>
+        <v>65.9484457318455</v>
       </c>
       <c r="N30" t="n">
-        <v>23.6811835617533</v>
+        <v>38.8566195247666</v>
       </c>
       <c r="O30" t="n">
-        <v>60.5959133114329</v>
+        <v>68.125664842338</v>
       </c>
     </row>
     <row r="31">
@@ -1912,46 +1912,46 @@
         <v>45078</v>
       </c>
       <c r="B31" t="n">
-        <v>1107</v>
+        <v>1598</v>
       </c>
       <c r="C31" t="n">
-        <v>100</v>
+        <v>73.0429589987192</v>
       </c>
       <c r="D31" t="n">
-        <v>7.57166212482399</v>
+        <v>33.7098131138586</v>
       </c>
       <c r="E31" t="n">
-        <v>100</v>
+        <v>80.8292058854814</v>
       </c>
       <c r="F31" t="n">
-        <v>44.4909429749453</v>
+        <v>37.9768919725744</v>
       </c>
       <c r="G31" t="n">
-        <v>13.4510263002885</v>
+        <v>33.9955124069722</v>
       </c>
       <c r="H31" t="n">
-        <v>49.1657841737244</v>
+        <v>24.7225920242005</v>
       </c>
       <c r="I31" t="n">
-        <v>43.6798584024608</v>
+        <v>29.1582860319774</v>
       </c>
       <c r="J31" t="n">
-        <v>99.1214947321514</v>
+        <v>66.9482224820446</v>
       </c>
       <c r="K31" t="n">
-        <v>15.4939195531873</v>
+        <v>52.9565549698894</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>66.9637533073593</v>
       </c>
       <c r="M31" t="n">
-        <v>70.8818861676414</v>
+        <v>59.5092387826315</v>
       </c>
       <c r="N31" t="n">
-        <v>29.8063009734872</v>
+        <v>37.3106554655931</v>
       </c>
       <c r="O31" t="n">
-        <v>65.9188487333381</v>
+        <v>54.2702587120955</v>
       </c>
     </row>
     <row r="32">
@@ -1959,46 +1959,46 @@
         <v>45108</v>
       </c>
       <c r="B32" t="n">
-        <v>936</v>
+        <v>2650</v>
       </c>
       <c r="C32" t="n">
-        <v>51.807540404791</v>
+        <v>47.9215554610322</v>
       </c>
       <c r="D32" t="n">
-        <v>46.4597316983785</v>
+        <v>50.4123308382621</v>
       </c>
       <c r="E32" t="n">
-        <v>63.2520541935</v>
+        <v>13.7145454463046</v>
       </c>
       <c r="F32" t="n">
-        <v>13.162865311056</v>
+        <v>31.8527745588359</v>
       </c>
       <c r="G32" t="n">
+        <v>22.2755692940195</v>
+      </c>
+      <c r="H32" t="n">
+        <v>29.5161281562759</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="H32" t="n">
-        <v>33.8847332430014</v>
-      </c>
-      <c r="I32" t="n">
-        <v>67.1153278312884</v>
-      </c>
       <c r="J32" t="n">
-        <v>88.2269804254117</v>
+        <v>60.9542798100598</v>
       </c>
       <c r="K32" t="n">
-        <v>58.6252729306091</v>
+        <v>100</v>
       </c>
       <c r="L32" t="n">
-        <v>46.5552551716497</v>
+        <v>41.5109744796763</v>
       </c>
       <c r="M32" t="n">
-        <v>50.6025134682637</v>
+        <v>52.3874971025612</v>
       </c>
       <c r="N32" t="n">
-        <v>28.8883154033912</v>
+        <v>33.0135958742645</v>
       </c>
       <c r="O32" t="n">
-        <v>56.5364537928243</v>
+        <v>35.8610598727893</v>
       </c>
     </row>
     <row r="33">
@@ -2006,46 +2006,46 @@
         <v>45139</v>
       </c>
       <c r="B33" t="n">
-        <v>447</v>
+        <v>1040</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>36.1979768479321</v>
       </c>
       <c r="D33" t="n">
-        <v>32.633552386971</v>
+        <v>14.9186436706726</v>
       </c>
       <c r="E33" t="n">
-        <v>6.35730718497279</v>
+        <v>13.0394282865818</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>33.6640976827107</v>
       </c>
       <c r="G33" t="n">
-        <v>71.3146362692975</v>
+        <v>23.0574047244794</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>42.7172493112098</v>
       </c>
       <c r="I33" t="n">
-        <v>3.26537292543799</v>
+        <v>13.2227413149653</v>
       </c>
       <c r="J33" t="n">
-        <v>76.1693232296838</v>
+        <v>58.7687534669097</v>
       </c>
       <c r="K33" t="n">
-        <v>5.27288771932291</v>
+        <v>27.582977458241</v>
       </c>
       <c r="L33" t="n">
-        <v>100</v>
+        <v>86.4343613728645</v>
       </c>
       <c r="M33" t="n">
-        <v>28.0331754185007</v>
+        <v>44.7123564214967</v>
       </c>
       <c r="N33" t="n">
-        <v>39.3861158366799</v>
+        <v>33.8407705855208</v>
       </c>
       <c r="O33" t="n">
-        <v>24.2609680372436</v>
+        <v>18.310617266435</v>
       </c>
     </row>
     <row r="34">
@@ -2053,46 +2053,46 @@
         <v>45170</v>
       </c>
       <c r="B34" t="n">
-        <v>613</v>
+        <v>1637</v>
       </c>
       <c r="C34" t="n">
-        <v>32.291985850711</v>
+        <v>50.0175369555258</v>
       </c>
       <c r="D34" t="n">
-        <v>39.0650634246902</v>
+        <v>36.1913372476275</v>
       </c>
       <c r="E34" t="n">
-        <v>3.17354273325797</v>
+        <v>28.1778780664187</v>
       </c>
       <c r="F34" t="n">
-        <v>25.9808817561561</v>
+        <v>25.312534160444</v>
       </c>
       <c r="G34" t="n">
-        <v>68.4995617739334</v>
+        <v>27.9539123292671</v>
       </c>
       <c r="H34" t="n">
-        <v>26.6707842090296</v>
+        <v>36.5607491623748</v>
       </c>
       <c r="I34" t="n">
-        <v>31.0830516921718</v>
+        <v>31.2776227795524</v>
       </c>
       <c r="J34" t="n">
-        <v>41.8437796128334</v>
+        <v>43.2432085673121</v>
       </c>
       <c r="K34" t="n">
-        <v>100</v>
+        <v>50.7932469925317</v>
       </c>
       <c r="L34" t="n">
-        <v>78.2318004824517</v>
+        <v>70.3005253937089</v>
       </c>
       <c r="M34" t="n">
-        <v>18.2244014587822</v>
+        <v>49.4873693693692</v>
       </c>
       <c r="N34" t="n">
-        <v>25.8936030292121</v>
+        <v>26.6925740014435</v>
       </c>
       <c r="O34" t="n">
-        <v>4.3222263881746</v>
+        <v>25.8917941586243</v>
       </c>
     </row>
     <row r="35">
@@ -2100,46 +2100,46 @@
         <v>45200</v>
       </c>
       <c r="B35" t="n">
-        <v>689</v>
+        <v>1249</v>
       </c>
       <c r="C35" t="n">
-        <v>22.3812185256356</v>
+        <v>62.2465943046498</v>
       </c>
       <c r="D35" t="n">
-        <v>5.98219327597508</v>
+        <v>28.9677410860304</v>
       </c>
       <c r="E35" t="n">
-        <v>3.43582924629305</v>
+        <v>36.4580761228724</v>
       </c>
       <c r="F35" t="n">
-        <v>29.9200829810689</v>
+        <v>44.2107378624402</v>
       </c>
       <c r="G35" t="n">
-        <v>72.0299607620536</v>
+        <v>59.4979767535922</v>
       </c>
       <c r="H35" t="n">
-        <v>19.3896342100075</v>
+        <v>60.1699894252494</v>
       </c>
       <c r="I35" t="n">
-        <v>48.0907270953313</v>
+        <v>100</v>
       </c>
       <c r="J35" t="n">
-        <v>86.1404209205498</v>
+        <v>71.7130258104914</v>
       </c>
       <c r="K35" t="n">
-        <v>12.2115338561746</v>
+        <v>49.4989160689057</v>
       </c>
       <c r="L35" t="n">
-        <v>78.6852377743298</v>
+        <v>78.1806221649078</v>
       </c>
       <c r="M35" t="n">
-        <v>23.9287730485739</v>
+        <v>60.2639016520627</v>
       </c>
       <c r="N35" t="n">
-        <v>25.9767757763479</v>
+        <v>40.4763441267199</v>
       </c>
       <c r="O35" t="n">
-        <v>3.44056035512936</v>
+        <v>37.9801083277611</v>
       </c>
     </row>
     <row r="36">
@@ -2147,46 +2147,46 @@
         <v>45231</v>
       </c>
       <c r="B36" t="n">
-        <v>635</v>
+        <v>1854</v>
       </c>
       <c r="C36" t="n">
-        <v>17.1131147693751</v>
+        <v>68.5275736960126</v>
       </c>
       <c r="D36" t="n">
-        <v>32.8830706283785</v>
+        <v>56.2699540465017</v>
       </c>
       <c r="E36" t="n">
-        <v>3.71230908583707</v>
+        <v>49.3043707939921</v>
       </c>
       <c r="F36" t="n">
-        <v>13.2516368643013</v>
+        <v>31.8270996435115</v>
       </c>
       <c r="G36" t="n">
-        <v>75.6132467349114</v>
+        <v>44.0939359310715</v>
       </c>
       <c r="H36" t="n">
-        <v>22.873732374838</v>
+        <v>42.027364322007</v>
       </c>
       <c r="I36" t="n">
-        <v>32.6863519111854</v>
+        <v>19.7114626897222</v>
       </c>
       <c r="J36" t="n">
-        <v>49.438202247191</v>
+        <v>67.8624110121286</v>
       </c>
       <c r="K36" t="n">
-        <v>16.8178286290004</v>
+        <v>60.1733881880434</v>
       </c>
       <c r="L36" t="n">
-        <v>81.7374902293329</v>
+        <v>64.5307401523935</v>
       </c>
       <c r="M36" t="n">
-        <v>22.2335297251697</v>
+        <v>61.6064291527082</v>
       </c>
       <c r="N36" t="n">
-        <v>28.9573138078797</v>
+        <v>55.8821864903536</v>
       </c>
       <c r="O36" t="n">
-        <v>10.5488494608565</v>
+        <v>34.3639350153951</v>
       </c>
     </row>
     <row r="37">
@@ -2194,46 +2194,46 @@
         <v>45261</v>
       </c>
       <c r="B37" t="n">
-        <v>735</v>
+        <v>2026</v>
       </c>
       <c r="C37" t="n">
-        <v>27.2062558804984</v>
+        <v>54.0451194574622</v>
       </c>
       <c r="D37" t="n">
-        <v>48.0066775192856</v>
+        <v>82.4088643385289</v>
       </c>
       <c r="E37" t="n">
-        <v>24.4984100504394</v>
+        <v>17.3293581293207</v>
       </c>
       <c r="F37" t="n">
-        <v>18.7436810134888</v>
+        <v>36.3414372587015</v>
       </c>
       <c r="G37" t="n">
-        <v>85.0357312885495</v>
+        <v>6.8569413193896</v>
       </c>
       <c r="H37" t="n">
-        <v>23.1329664545485</v>
+        <v>14.1863124843559</v>
       </c>
       <c r="I37" t="n">
-        <v>42.7126802990489</v>
+        <v>37.3307558239945</v>
       </c>
       <c r="J37" t="n">
-        <v>98.1538461538461</v>
+        <v>45.1044661845009</v>
       </c>
       <c r="K37" t="n">
-        <v>7.90590356107649</v>
+        <v>45.0735623125649</v>
       </c>
       <c r="L37" t="n">
-        <v>73.0064145930482</v>
+        <v>59.9021893218453</v>
       </c>
       <c r="M37" t="n">
-        <v>43.6133392839885</v>
+        <v>70.1367518571009</v>
       </c>
       <c r="N37" t="n">
-        <v>42.983295599518</v>
+        <v>53.720475076791</v>
       </c>
       <c r="O37" t="n">
-        <v>18.9502144931635</v>
+        <v>53.0220735522255</v>
       </c>
     </row>
     <row r="38">
@@ -2241,37 +2241,37 @@
         <v>45292</v>
       </c>
       <c r="B38" t="n">
-        <v>259</v>
+        <v>525</v>
       </c>
       <c r="C38" t="n">
-        <v>86.5206472020921</v>
+        <v>87.8375624178279</v>
       </c>
       <c r="D38" t="n">
-        <v>48.0601386508898</v>
+        <v>22.4826068453424</v>
       </c>
       <c r="E38" t="n">
-        <v>28.6399243432141</v>
+        <v>92.4324917333636</v>
       </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>25.1732500590147</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>16.1891129115502</v>
+      </c>
+      <c r="J38" t="n">
+        <v>54.2640875073445</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
         <v>100</v>
-      </c>
-      <c r="G38" t="n">
-        <v>76.7031304045088</v>
-      </c>
-      <c r="H38" t="n">
-        <v>100</v>
-      </c>
-      <c r="I38" t="n">
-        <v>59.7414046843467</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>33.3972207598679</v>
-      </c>
-      <c r="L38" t="n">
-        <v>92.8537899285856</v>
       </c>
       <c r="M38"/>
       <c r="N38"/>
@@ -2352,40 +2352,40 @@
         <v>44197</v>
       </c>
       <c r="B2" t="n">
-        <v>386</v>
+        <v>15216</v>
       </c>
       <c r="C2" t="n">
-        <v>420</v>
+        <v>23143</v>
       </c>
       <c r="D2" t="n">
-        <v>941</v>
+        <v>10014</v>
       </c>
       <c r="E2" t="n">
-        <v>1508</v>
+        <v>14655</v>
       </c>
       <c r="F2" t="n">
-        <v>1671</v>
+        <v>27224</v>
       </c>
       <c r="G2" t="n">
-        <v>59</v>
+        <v>2148</v>
       </c>
       <c r="H2" t="n">
-        <v>144</v>
+        <v>7920</v>
       </c>
       <c r="I2" t="n">
-        <v>150</v>
+        <v>1446</v>
       </c>
       <c r="J2" t="n">
-        <v>1006</v>
+        <v>940</v>
       </c>
       <c r="K2" t="n">
-        <v>351</v>
+        <v>7703</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="M2" t="n">
-        <v>8</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3">
@@ -2393,40 +2393,40 @@
         <v>44228</v>
       </c>
       <c r="B3" t="n">
-        <v>249</v>
+        <v>7730</v>
       </c>
       <c r="C3" t="n">
-        <v>255</v>
+        <v>16195</v>
       </c>
       <c r="D3" t="n">
-        <v>716</v>
+        <v>6268</v>
       </c>
       <c r="E3" t="n">
-        <v>547</v>
+        <v>7139</v>
       </c>
       <c r="F3" t="n">
-        <v>865</v>
+        <v>11770</v>
       </c>
       <c r="G3" t="n">
-        <v>59</v>
+        <v>1338</v>
       </c>
       <c r="H3" t="n">
-        <v>206</v>
+        <v>5910</v>
       </c>
       <c r="I3" t="n">
-        <v>134</v>
+        <v>1013</v>
       </c>
       <c r="J3" t="n">
-        <v>589</v>
+        <v>611</v>
       </c>
       <c r="K3" t="n">
-        <v>35</v>
+        <v>4495</v>
       </c>
       <c r="L3" t="n">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="M3" t="n">
-        <v>17</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4">
@@ -2434,40 +2434,40 @@
         <v>44256</v>
       </c>
       <c r="B4" t="n">
-        <v>222</v>
+        <v>8037</v>
       </c>
       <c r="C4" t="n">
-        <v>246</v>
+        <v>27577</v>
       </c>
       <c r="D4" t="n">
-        <v>757</v>
+        <v>6090</v>
       </c>
       <c r="E4" t="n">
-        <v>588</v>
+        <v>7053</v>
       </c>
       <c r="F4" t="n">
-        <v>1619</v>
+        <v>15252</v>
       </c>
       <c r="G4" t="n">
-        <v>84</v>
+        <v>1254</v>
       </c>
       <c r="H4" t="n">
-        <v>567</v>
+        <v>8430</v>
       </c>
       <c r="I4" t="n">
-        <v>170</v>
+        <v>917</v>
       </c>
       <c r="J4" t="n">
-        <v>508</v>
+        <v>550</v>
       </c>
       <c r="K4" t="n">
-        <v>149</v>
+        <v>2521</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="M4" t="n">
-        <v>18</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5">
@@ -2475,40 +2475,40 @@
         <v>44287</v>
       </c>
       <c r="B5" t="n">
-        <v>200</v>
+        <v>8812</v>
       </c>
       <c r="C5" t="n">
-        <v>130</v>
+        <v>15280</v>
       </c>
       <c r="D5" t="n">
-        <v>754</v>
+        <v>10244</v>
       </c>
       <c r="E5" t="n">
-        <v>379</v>
+        <v>5365</v>
       </c>
       <c r="F5" t="n">
-        <v>922</v>
+        <v>11605</v>
       </c>
       <c r="G5" t="n">
-        <v>75</v>
+        <v>681</v>
       </c>
       <c r="H5" t="n">
-        <v>254</v>
+        <v>5022</v>
       </c>
       <c r="I5" t="n">
-        <v>127</v>
+        <v>1176</v>
       </c>
       <c r="J5" t="n">
-        <v>442</v>
+        <v>613</v>
       </c>
       <c r="K5" t="n">
-        <v>86</v>
+        <v>3973</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="M5" t="n">
-        <v>14</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6">
@@ -2516,40 +2516,40 @@
         <v>44317</v>
       </c>
       <c r="B6" t="n">
-        <v>168</v>
+        <v>5097</v>
       </c>
       <c r="C6" t="n">
-        <v>289</v>
+        <v>10700</v>
       </c>
       <c r="D6" t="n">
-        <v>494</v>
+        <v>4707</v>
       </c>
       <c r="E6" t="n">
-        <v>656</v>
+        <v>4302</v>
       </c>
       <c r="F6" t="n">
-        <v>1352</v>
+        <v>12441</v>
       </c>
       <c r="G6" t="n">
-        <v>69</v>
+        <v>544</v>
       </c>
       <c r="H6" t="n">
-        <v>542</v>
+        <v>7886</v>
       </c>
       <c r="I6" t="n">
-        <v>87</v>
+        <v>1106</v>
       </c>
       <c r="J6" t="n">
-        <v>424</v>
+        <v>607</v>
       </c>
       <c r="K6" t="n">
-        <v>83</v>
+        <v>1865</v>
       </c>
       <c r="L6" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="M6" t="n">
-        <v>18</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
@@ -2557,40 +2557,40 @@
         <v>44348</v>
       </c>
       <c r="B7" t="n">
-        <v>154</v>
+        <v>8210</v>
       </c>
       <c r="C7" t="n">
-        <v>140</v>
+        <v>20754</v>
       </c>
       <c r="D7" t="n">
-        <v>470</v>
+        <v>6142</v>
       </c>
       <c r="E7" t="n">
-        <v>345</v>
+        <v>6462</v>
       </c>
       <c r="F7" t="n">
-        <v>1341</v>
+        <v>9410</v>
       </c>
       <c r="G7" t="n">
-        <v>45</v>
+        <v>1178</v>
       </c>
       <c r="H7" t="n">
-        <v>127</v>
+        <v>3217</v>
       </c>
       <c r="I7" t="n">
-        <v>74</v>
+        <v>1283</v>
       </c>
       <c r="J7" t="n">
-        <v>354</v>
+        <v>579</v>
       </c>
       <c r="K7" t="n">
-        <v>36</v>
+        <v>7057</v>
       </c>
       <c r="L7" t="n">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="M7" t="n">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
@@ -2598,40 +2598,40 @@
         <v>44378</v>
       </c>
       <c r="B8" t="n">
-        <v>243</v>
+        <v>10525</v>
       </c>
       <c r="C8" t="n">
-        <v>187</v>
+        <v>17236</v>
       </c>
       <c r="D8" t="n">
-        <v>885</v>
+        <v>6186</v>
       </c>
       <c r="E8" t="n">
-        <v>895</v>
+        <v>6042</v>
       </c>
       <c r="F8" t="n">
-        <v>1126</v>
+        <v>13108</v>
       </c>
       <c r="G8" t="n">
-        <v>42</v>
+        <v>795</v>
       </c>
       <c r="H8" t="n">
-        <v>70</v>
+        <v>2288</v>
       </c>
       <c r="I8" t="n">
-        <v>119</v>
+        <v>1758</v>
       </c>
       <c r="J8" t="n">
-        <v>465</v>
+        <v>623</v>
       </c>
       <c r="K8" t="n">
-        <v>73</v>
+        <v>8813</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9">
@@ -2639,40 +2639,40 @@
         <v>44409</v>
       </c>
       <c r="B9" t="n">
-        <v>188</v>
+        <v>2269</v>
       </c>
       <c r="C9" t="n">
-        <v>112</v>
+        <v>5428</v>
       </c>
       <c r="D9" t="n">
-        <v>663</v>
+        <v>2651</v>
       </c>
       <c r="E9" t="n">
-        <v>289</v>
+        <v>1493</v>
       </c>
       <c r="F9" t="n">
-        <v>1059</v>
+        <v>4557</v>
       </c>
       <c r="G9" t="n">
-        <v>26</v>
+        <v>355</v>
       </c>
       <c r="H9" t="n">
-        <v>63</v>
+        <v>665</v>
       </c>
       <c r="I9" t="n">
-        <v>113</v>
+        <v>605</v>
       </c>
       <c r="J9" t="n">
-        <v>510</v>
+        <v>203</v>
       </c>
       <c r="K9" t="n">
-        <v>51</v>
+        <v>3078</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
@@ -2680,40 +2680,40 @@
         <v>44440</v>
       </c>
       <c r="B10" t="n">
-        <v>216</v>
+        <v>5123</v>
       </c>
       <c r="C10" t="n">
-        <v>182</v>
+        <v>11528</v>
       </c>
       <c r="D10" t="n">
-        <v>675</v>
+        <v>3687</v>
       </c>
       <c r="E10" t="n">
-        <v>557</v>
+        <v>4972</v>
       </c>
       <c r="F10" t="n">
-        <v>978</v>
+        <v>9897</v>
       </c>
       <c r="G10" t="n">
-        <v>37</v>
+        <v>667</v>
       </c>
       <c r="H10" t="n">
-        <v>101</v>
+        <v>2848</v>
       </c>
       <c r="I10" t="n">
-        <v>98</v>
+        <v>781</v>
       </c>
       <c r="J10" t="n">
-        <v>750</v>
+        <v>472</v>
       </c>
       <c r="K10" t="n">
-        <v>155</v>
+        <v>3503</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="M10" t="n">
-        <v>22</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11">
@@ -2721,40 +2721,40 @@
         <v>44470</v>
       </c>
       <c r="B11" t="n">
-        <v>408</v>
+        <v>8893</v>
       </c>
       <c r="C11" t="n">
-        <v>258</v>
+        <v>18643</v>
       </c>
       <c r="D11" t="n">
-        <v>1404</v>
+        <v>7038</v>
       </c>
       <c r="E11" t="n">
-        <v>1301</v>
+        <v>7661</v>
       </c>
       <c r="F11" t="n">
-        <v>1067</v>
+        <v>9955</v>
       </c>
       <c r="G11" t="n">
-        <v>38</v>
+        <v>1613</v>
       </c>
       <c r="H11" t="n">
-        <v>123</v>
+        <v>3668</v>
       </c>
       <c r="I11" t="n">
-        <v>153</v>
+        <v>1126</v>
       </c>
       <c r="J11" t="n">
-        <v>755</v>
+        <v>554</v>
       </c>
       <c r="K11" t="n">
-        <v>188</v>
+        <v>4461</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="M11" t="n">
-        <v>46</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12">
@@ -2762,40 +2762,40 @@
         <v>44501</v>
       </c>
       <c r="B12" t="n">
-        <v>295</v>
+        <v>13387</v>
       </c>
       <c r="C12" t="n">
-        <v>443</v>
+        <v>19528</v>
       </c>
       <c r="D12" t="n">
-        <v>586</v>
+        <v>8283</v>
       </c>
       <c r="E12" t="n">
-        <v>728</v>
+        <v>7122</v>
       </c>
       <c r="F12" t="n">
-        <v>1011</v>
+        <v>10046</v>
       </c>
       <c r="G12" t="n">
-        <v>17</v>
+        <v>1107</v>
       </c>
       <c r="H12" t="n">
-        <v>103</v>
+        <v>3038</v>
       </c>
       <c r="I12" t="n">
-        <v>172</v>
+        <v>1343</v>
       </c>
       <c r="J12" t="n">
-        <v>1032</v>
+        <v>1226</v>
       </c>
       <c r="K12" t="n">
-        <v>137</v>
+        <v>7369</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="M12" t="n">
-        <v>60</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13">
@@ -2803,40 +2803,40 @@
         <v>44531</v>
       </c>
       <c r="B13" t="n">
-        <v>306</v>
+        <v>8127</v>
       </c>
       <c r="C13" t="n">
-        <v>261</v>
+        <v>14824</v>
       </c>
       <c r="D13" t="n">
-        <v>874</v>
+        <v>5886</v>
       </c>
       <c r="E13" t="n">
-        <v>646</v>
+        <v>6827</v>
       </c>
       <c r="F13" t="n">
-        <v>517</v>
+        <v>8883</v>
       </c>
       <c r="G13" t="n">
-        <v>33</v>
+        <v>1218</v>
       </c>
       <c r="H13" t="n">
-        <v>95</v>
+        <v>1662</v>
       </c>
       <c r="I13" t="n">
-        <v>91</v>
+        <v>1025</v>
       </c>
       <c r="J13" t="n">
-        <v>783</v>
+        <v>753</v>
       </c>
       <c r="K13" t="n">
-        <v>107</v>
+        <v>6942</v>
       </c>
       <c r="L13" t="n">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="M13" t="n">
-        <v>39</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14">
@@ -2844,40 +2844,40 @@
         <v>44562</v>
       </c>
       <c r="B14" t="n">
-        <v>260</v>
+        <v>7239</v>
       </c>
       <c r="C14" t="n">
+        <v>9248</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6158</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5614</v>
+      </c>
+      <c r="F14" t="n">
+        <v>7104</v>
+      </c>
+      <c r="G14" t="n">
+        <v>857</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1159</v>
+      </c>
+      <c r="I14" t="n">
+        <v>922</v>
+      </c>
+      <c r="J14" t="n">
+        <v>567</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4213</v>
+      </c>
+      <c r="L14" t="n">
+        <v>136</v>
+      </c>
+      <c r="M14" t="n">
         <v>168</v>
-      </c>
-      <c r="D14" t="n">
-        <v>690</v>
-      </c>
-      <c r="E14" t="n">
-        <v>788</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1153</v>
-      </c>
-      <c r="G14" t="n">
-        <v>17</v>
-      </c>
-      <c r="H14" t="n">
-        <v>97</v>
-      </c>
-      <c r="I14" t="n">
-        <v>189</v>
-      </c>
-      <c r="J14" t="n">
-        <v>877</v>
-      </c>
-      <c r="K14" t="n">
-        <v>76</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3</v>
-      </c>
-      <c r="M14" t="n">
-        <v>59</v>
       </c>
     </row>
     <row r="15">
@@ -2885,40 +2885,40 @@
         <v>44593</v>
       </c>
       <c r="B15" t="n">
-        <v>350</v>
+        <v>11366</v>
       </c>
       <c r="C15" t="n">
-        <v>259</v>
+        <v>15261</v>
       </c>
       <c r="D15" t="n">
-        <v>806</v>
+        <v>15873</v>
       </c>
       <c r="E15" t="n">
-        <v>671</v>
+        <v>9578</v>
       </c>
       <c r="F15" t="n">
-        <v>1249</v>
+        <v>8135</v>
       </c>
       <c r="G15" t="n">
-        <v>21</v>
+        <v>619</v>
       </c>
       <c r="H15" t="n">
-        <v>220</v>
+        <v>4157</v>
       </c>
       <c r="I15" t="n">
-        <v>321</v>
+        <v>1146</v>
       </c>
       <c r="J15" t="n">
-        <v>892</v>
+        <v>826</v>
       </c>
       <c r="K15" t="n">
-        <v>74</v>
+        <v>4970</v>
       </c>
       <c r="L15" t="n">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="M15" t="n">
-        <v>33</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16">
@@ -2926,40 +2926,40 @@
         <v>44621</v>
       </c>
       <c r="B16" t="n">
-        <v>253</v>
+        <v>6562</v>
       </c>
       <c r="C16" t="n">
-        <v>232</v>
+        <v>13055</v>
       </c>
       <c r="D16" t="n">
-        <v>704</v>
+        <v>8084</v>
       </c>
       <c r="E16" t="n">
-        <v>625</v>
+        <v>5013</v>
       </c>
       <c r="F16" t="n">
-        <v>1092</v>
+        <v>8595</v>
       </c>
       <c r="G16" t="n">
-        <v>19</v>
+        <v>391</v>
       </c>
       <c r="H16" t="n">
-        <v>97</v>
+        <v>2442</v>
       </c>
       <c r="I16" t="n">
-        <v>317</v>
+        <v>670</v>
       </c>
       <c r="J16" t="n">
-        <v>656</v>
+        <v>784</v>
       </c>
       <c r="K16" t="n">
-        <v>47</v>
+        <v>3397</v>
       </c>
       <c r="L16" t="n">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="M16" t="n">
-        <v>46</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17">
@@ -2967,40 +2967,40 @@
         <v>44652</v>
       </c>
       <c r="B17" t="n">
-        <v>287</v>
+        <v>5662</v>
       </c>
       <c r="C17" t="n">
-        <v>207</v>
+        <v>8033</v>
       </c>
       <c r="D17" t="n">
-        <v>1348</v>
+        <v>7487</v>
       </c>
       <c r="E17" t="n">
-        <v>917</v>
+        <v>4695</v>
       </c>
       <c r="F17" t="n">
-        <v>1029</v>
+        <v>9963</v>
       </c>
       <c r="G17" t="n">
-        <v>77</v>
+        <v>1034</v>
       </c>
       <c r="H17" t="n">
-        <v>116</v>
+        <v>2884</v>
       </c>
       <c r="I17" t="n">
-        <v>171</v>
+        <v>828</v>
       </c>
       <c r="J17" t="n">
-        <v>859</v>
+        <v>1332</v>
       </c>
       <c r="K17" t="n">
-        <v>159</v>
+        <v>4938</v>
       </c>
       <c r="L17" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="M17" t="n">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18">
@@ -3008,40 +3008,40 @@
         <v>44682</v>
       </c>
       <c r="B18" t="n">
-        <v>155</v>
+        <v>4834</v>
       </c>
       <c r="C18" t="n">
-        <v>100</v>
+        <v>11619</v>
       </c>
       <c r="D18" t="n">
-        <v>959</v>
+        <v>5568</v>
       </c>
       <c r="E18" t="n">
-        <v>729</v>
+        <v>5861</v>
       </c>
       <c r="F18" t="n">
-        <v>786</v>
+        <v>5186</v>
       </c>
       <c r="G18" t="n">
-        <v>12</v>
+        <v>666</v>
       </c>
       <c r="H18" t="n">
-        <v>96</v>
+        <v>1582</v>
       </c>
       <c r="I18" t="n">
-        <v>124</v>
+        <v>568</v>
       </c>
       <c r="J18" t="n">
-        <v>868</v>
+        <v>339</v>
       </c>
       <c r="K18" t="n">
-        <v>134</v>
+        <v>3515</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="M18" t="n">
-        <v>23</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19">
@@ -3049,40 +3049,40 @@
         <v>44713</v>
       </c>
       <c r="B19" t="n">
-        <v>253</v>
+        <v>7811</v>
       </c>
       <c r="C19" t="n">
-        <v>733</v>
+        <v>10832</v>
       </c>
       <c r="D19" t="n">
-        <v>1036</v>
+        <v>5556</v>
       </c>
       <c r="E19" t="n">
-        <v>1100</v>
+        <v>4805</v>
       </c>
       <c r="F19" t="n">
-        <v>1074</v>
+        <v>9344</v>
       </c>
       <c r="G19" t="n">
-        <v>13</v>
+        <v>754</v>
       </c>
       <c r="H19" t="n">
-        <v>106</v>
+        <v>2310</v>
       </c>
       <c r="I19" t="n">
-        <v>103</v>
+        <v>1064</v>
       </c>
       <c r="J19" t="n">
-        <v>717</v>
+        <v>630</v>
       </c>
       <c r="K19" t="n">
-        <v>49</v>
+        <v>5977</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="M19" t="n">
-        <v>26</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20">
@@ -3090,40 +3090,40 @@
         <v>44743</v>
       </c>
       <c r="B20" t="n">
-        <v>242</v>
+        <v>6489</v>
       </c>
       <c r="C20" t="n">
-        <v>237</v>
+        <v>12281</v>
       </c>
       <c r="D20" t="n">
-        <v>637</v>
+        <v>6587</v>
       </c>
       <c r="E20" t="n">
-        <v>741</v>
+        <v>4633</v>
       </c>
       <c r="F20" t="n">
-        <v>836</v>
+        <v>6796</v>
       </c>
       <c r="G20" t="n">
-        <v>12</v>
+        <v>538</v>
       </c>
       <c r="H20" t="n">
-        <v>115</v>
+        <v>1990</v>
       </c>
       <c r="I20" t="n">
-        <v>134</v>
+        <v>1054</v>
       </c>
       <c r="J20" t="n">
-        <v>557</v>
+        <v>891</v>
       </c>
       <c r="K20" t="n">
-        <v>26</v>
+        <v>4624</v>
       </c>
       <c r="L20" t="n">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="M20" t="n">
-        <v>14</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21">
@@ -3131,40 +3131,40 @@
         <v>44774</v>
       </c>
       <c r="B21" t="n">
-        <v>409</v>
+        <v>8095</v>
       </c>
       <c r="C21" t="n">
-        <v>113</v>
+        <v>8656</v>
       </c>
       <c r="D21" t="n">
-        <v>417</v>
+        <v>5793</v>
       </c>
       <c r="E21" t="n">
-        <v>383</v>
+        <v>2250</v>
       </c>
       <c r="F21" t="n">
-        <v>703</v>
+        <v>4897</v>
       </c>
       <c r="G21" t="n">
-        <v>7</v>
+        <v>200</v>
       </c>
       <c r="H21" t="n">
-        <v>89</v>
+        <v>1120</v>
       </c>
       <c r="I21" t="n">
-        <v>107</v>
+        <v>989</v>
       </c>
       <c r="J21" t="n">
-        <v>701</v>
+        <v>332</v>
       </c>
       <c r="K21" t="n">
-        <v>117</v>
+        <v>5888</v>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="M21" t="n">
-        <v>14</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
@@ -3172,40 +3172,40 @@
         <v>44805</v>
       </c>
       <c r="B22" t="n">
-        <v>314</v>
+        <v>8542</v>
       </c>
       <c r="C22" t="n">
-        <v>140</v>
+        <v>12211</v>
       </c>
       <c r="D22" t="n">
-        <v>899</v>
+        <v>6536</v>
       </c>
       <c r="E22" t="n">
-        <v>871</v>
+        <v>6057</v>
       </c>
       <c r="F22" t="n">
-        <v>618</v>
+        <v>5894</v>
       </c>
       <c r="G22" t="n">
-        <v>12</v>
+        <v>590</v>
       </c>
       <c r="H22" t="n">
-        <v>88</v>
+        <v>1855</v>
       </c>
       <c r="I22" t="n">
-        <v>105</v>
+        <v>947</v>
       </c>
       <c r="J22" t="n">
-        <v>724</v>
+        <v>645</v>
       </c>
       <c r="K22" t="n">
-        <v>108</v>
+        <v>4916</v>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="M22" t="n">
-        <v>28</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23">
@@ -3213,40 +3213,40 @@
         <v>44835</v>
       </c>
       <c r="B23" t="n">
-        <v>507</v>
+        <v>11732</v>
       </c>
       <c r="C23" t="n">
-        <v>460</v>
+        <v>17529</v>
       </c>
       <c r="D23" t="n">
-        <v>2551</v>
+        <v>8231</v>
       </c>
       <c r="E23" t="n">
-        <v>2195</v>
+        <v>9169</v>
       </c>
       <c r="F23" t="n">
-        <v>843</v>
+        <v>7669</v>
       </c>
       <c r="G23" t="n">
-        <v>34</v>
+        <v>726</v>
       </c>
       <c r="H23" t="n">
-        <v>179</v>
+        <v>2597</v>
       </c>
       <c r="I23" t="n">
-        <v>136</v>
+        <v>940</v>
       </c>
       <c r="J23" t="n">
-        <v>1808</v>
+        <v>729</v>
       </c>
       <c r="K23" t="n">
-        <v>191</v>
+        <v>4849</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="M23" t="n">
-        <v>46</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24">
@@ -3254,40 +3254,40 @@
         <v>44866</v>
       </c>
       <c r="B24" t="n">
-        <v>235</v>
+        <v>5372</v>
       </c>
       <c r="C24" t="n">
-        <v>452</v>
+        <v>10469</v>
       </c>
       <c r="D24" t="n">
-        <v>1307</v>
+        <v>3903</v>
       </c>
       <c r="E24" t="n">
-        <v>1502</v>
+        <v>3965</v>
       </c>
       <c r="F24" t="n">
-        <v>754</v>
+        <v>4537</v>
       </c>
       <c r="G24" t="n">
-        <v>32</v>
+        <v>427</v>
       </c>
       <c r="H24" t="n">
-        <v>184</v>
+        <v>1300</v>
       </c>
       <c r="I24" t="n">
-        <v>162</v>
+        <v>456</v>
       </c>
       <c r="J24" t="n">
-        <v>725</v>
+        <v>496</v>
       </c>
       <c r="K24" t="n">
-        <v>129</v>
+        <v>2068</v>
       </c>
       <c r="L24" t="n">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="M24" t="n">
-        <v>7</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25">
@@ -3295,40 +3295,40 @@
         <v>44896</v>
       </c>
       <c r="B25" t="n">
-        <v>211</v>
+        <v>5950</v>
       </c>
       <c r="C25" t="n">
-        <v>376</v>
+        <v>10193</v>
       </c>
       <c r="D25" t="n">
-        <v>798</v>
+        <v>4437</v>
       </c>
       <c r="E25" t="n">
-        <v>1505</v>
+        <v>4821</v>
       </c>
       <c r="F25" t="n">
-        <v>1368</v>
+        <v>5108</v>
       </c>
       <c r="G25" t="n">
-        <v>19</v>
+        <v>704</v>
       </c>
       <c r="H25" t="n">
-        <v>174</v>
+        <v>1033</v>
       </c>
       <c r="I25" t="n">
-        <v>234</v>
+        <v>618</v>
       </c>
       <c r="J25" t="n">
-        <v>637</v>
+        <v>565</v>
       </c>
       <c r="K25" t="n">
-        <v>170</v>
+        <v>3445</v>
       </c>
       <c r="L25" t="n">
-        <v>22</v>
+        <v>410</v>
       </c>
       <c r="M25" t="n">
-        <v>30</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26">
@@ -3336,40 +3336,40 @@
         <v>44927</v>
       </c>
       <c r="B26" t="n">
-        <v>433</v>
+        <v>7171</v>
       </c>
       <c r="C26" t="n">
-        <v>431</v>
+        <v>12456</v>
       </c>
       <c r="D26" t="n">
-        <v>1475</v>
+        <v>9253</v>
       </c>
       <c r="E26" t="n">
-        <v>1439</v>
+        <v>5194</v>
       </c>
       <c r="F26" t="n">
-        <v>2848</v>
+        <v>5536</v>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>323</v>
       </c>
       <c r="H26" t="n">
-        <v>202</v>
+        <v>2030</v>
       </c>
       <c r="I26" t="n">
-        <v>513</v>
+        <v>679</v>
       </c>
       <c r="J26" t="n">
-        <v>879</v>
+        <v>576</v>
       </c>
       <c r="K26" t="n">
-        <v>49</v>
+        <v>4891</v>
       </c>
       <c r="L26" t="n">
-        <v>5</v>
+        <v>430</v>
       </c>
       <c r="M26" t="n">
-        <v>55</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27">
@@ -3377,40 +3377,40 @@
         <v>44958</v>
       </c>
       <c r="B27" t="n">
-        <v>192</v>
+        <v>10056</v>
       </c>
       <c r="C27" t="n">
-        <v>168</v>
+        <v>14157</v>
       </c>
       <c r="D27" t="n">
-        <v>1237</v>
+        <v>7742</v>
       </c>
       <c r="E27" t="n">
-        <v>877</v>
+        <v>9250</v>
       </c>
       <c r="F27" t="n">
-        <v>1286</v>
+        <v>7099</v>
       </c>
       <c r="G27" t="n">
-        <v>33</v>
+        <v>957</v>
       </c>
       <c r="H27" t="n">
-        <v>88</v>
+        <v>2006</v>
       </c>
       <c r="I27" t="n">
-        <v>129</v>
+        <v>736</v>
       </c>
       <c r="J27" t="n">
-        <v>753</v>
+        <v>423</v>
       </c>
       <c r="K27" t="n">
-        <v>143</v>
+        <v>5287</v>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>186</v>
       </c>
       <c r="M27" t="n">
-        <v>6</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28">
@@ -3418,40 +3418,40 @@
         <v>44986</v>
       </c>
       <c r="B28" t="n">
-        <v>244</v>
+        <v>8465</v>
       </c>
       <c r="C28" t="n">
-        <v>352</v>
+        <v>18387</v>
       </c>
       <c r="D28" t="n">
-        <v>885</v>
+        <v>7290</v>
       </c>
       <c r="E28" t="n">
-        <v>1181</v>
+        <v>7415</v>
       </c>
       <c r="F28" t="n">
-        <v>1921</v>
+        <v>11843</v>
       </c>
       <c r="G28" t="n">
-        <v>44</v>
+        <v>756</v>
       </c>
       <c r="H28" t="n">
-        <v>172</v>
+        <v>2542</v>
       </c>
       <c r="I28" t="n">
-        <v>181</v>
+        <v>1128</v>
       </c>
       <c r="J28" t="n">
-        <v>801</v>
+        <v>577</v>
       </c>
       <c r="K28" t="n">
-        <v>117</v>
+        <v>7510</v>
       </c>
       <c r="L28" t="n">
-        <v>5</v>
+        <v>151</v>
       </c>
       <c r="M28" t="n">
-        <v>26</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29">
@@ -3459,40 +3459,40 @@
         <v>45017</v>
       </c>
       <c r="B29" t="n">
-        <v>383</v>
+        <v>7493</v>
       </c>
       <c r="C29" t="n">
-        <v>2518</v>
+        <v>14570</v>
       </c>
       <c r="D29" t="n">
-        <v>2413</v>
+        <v>7094</v>
       </c>
       <c r="E29" t="n">
-        <v>1822</v>
+        <v>4450</v>
       </c>
       <c r="F29" t="n">
-        <v>2134</v>
+        <v>7823</v>
       </c>
       <c r="G29" t="n">
-        <v>47</v>
+        <v>509</v>
       </c>
       <c r="H29" t="n">
-        <v>180</v>
+        <v>1636</v>
       </c>
       <c r="I29" t="n">
-        <v>210</v>
+        <v>1089</v>
       </c>
       <c r="J29" t="n">
-        <v>1021</v>
+        <v>535</v>
       </c>
       <c r="K29" t="n">
-        <v>202</v>
+        <v>4892</v>
       </c>
       <c r="L29" t="n">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="M29" t="n">
-        <v>44</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30">
@@ -3500,40 +3500,40 @@
         <v>45047</v>
       </c>
       <c r="B30" t="n">
-        <v>477</v>
+        <v>3885</v>
       </c>
       <c r="C30" t="n">
-        <v>2127</v>
+        <v>10396</v>
       </c>
       <c r="D30" t="n">
-        <v>4464</v>
+        <v>3322</v>
       </c>
       <c r="E30" t="n">
-        <v>2343</v>
+        <v>2467</v>
       </c>
       <c r="F30" t="n">
-        <v>1940</v>
+        <v>5352</v>
       </c>
       <c r="G30" t="n">
-        <v>49</v>
+        <v>452</v>
       </c>
       <c r="H30" t="n">
-        <v>361</v>
+        <v>1000</v>
       </c>
       <c r="I30" t="n">
-        <v>160</v>
+        <v>496</v>
       </c>
       <c r="J30" t="n">
-        <v>891</v>
+        <v>325</v>
       </c>
       <c r="K30" t="n">
-        <v>485</v>
+        <v>3718</v>
       </c>
       <c r="L30" t="n">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="M30" t="n">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31">
@@ -3541,40 +3541,40 @@
         <v>45078</v>
       </c>
       <c r="B31" t="n">
-        <v>280</v>
+        <v>5341</v>
       </c>
       <c r="C31" t="n">
-        <v>5241</v>
+        <v>14776</v>
       </c>
       <c r="D31" t="n">
-        <v>2952</v>
+        <v>4489</v>
       </c>
       <c r="E31" t="n">
-        <v>2223</v>
+        <v>3411</v>
       </c>
       <c r="F31" t="n">
-        <v>2786</v>
+        <v>6394</v>
       </c>
       <c r="G31" t="n">
-        <v>77</v>
+        <v>483</v>
       </c>
       <c r="H31" t="n">
-        <v>232</v>
+        <v>1186</v>
       </c>
       <c r="I31" t="n">
-        <v>322</v>
+        <v>1442</v>
       </c>
       <c r="J31" t="n">
-        <v>1837</v>
+        <v>811</v>
       </c>
       <c r="K31" t="n">
-        <v>458</v>
+        <v>4703</v>
       </c>
       <c r="L31" t="n">
-        <v>7</v>
+        <v>168</v>
       </c>
       <c r="M31" t="n">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32">
@@ -3582,40 +3582,40 @@
         <v>45108</v>
       </c>
       <c r="B32" t="n">
-        <v>412</v>
+        <v>10139</v>
       </c>
       <c r="C32" t="n">
-        <v>2851</v>
+        <v>13743</v>
       </c>
       <c r="D32" t="n">
-        <v>1811</v>
+        <v>8952</v>
       </c>
       <c r="E32" t="n">
-        <v>1498</v>
+        <v>10642</v>
       </c>
       <c r="F32" t="n">
-        <v>1083</v>
+        <v>9182</v>
       </c>
       <c r="G32" t="n">
-        <v>27</v>
+        <v>788</v>
       </c>
       <c r="H32" t="n">
-        <v>199</v>
+        <v>1785</v>
       </c>
       <c r="I32" t="n">
-        <v>120</v>
+        <v>1523</v>
       </c>
       <c r="J32" t="n">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="K32" t="n">
-        <v>356</v>
+        <v>8230</v>
       </c>
       <c r="L32" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="M32" t="n">
-        <v>6</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33">
@@ -3623,40 +3623,40 @@
         <v>45139</v>
       </c>
       <c r="B33" t="n">
-        <v>167</v>
+        <v>2910</v>
       </c>
       <c r="C33" t="n">
-        <v>193</v>
+        <v>5351</v>
       </c>
       <c r="D33" t="n">
-        <v>235</v>
+        <v>3650</v>
       </c>
       <c r="E33" t="n">
-        <v>218</v>
+        <v>2557</v>
       </c>
       <c r="F33" t="n">
-        <v>527</v>
+        <v>3179</v>
       </c>
       <c r="G33" t="n">
-        <v>10</v>
+        <v>353</v>
       </c>
       <c r="H33" t="n">
-        <v>83</v>
+        <v>1145</v>
       </c>
       <c r="I33" t="n">
-        <v>61</v>
+        <v>538</v>
       </c>
       <c r="J33" t="n">
-        <v>449</v>
+        <v>328</v>
       </c>
       <c r="K33" t="n">
-        <v>81</v>
+        <v>4621</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="M33" t="n">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34">
@@ -3664,40 +3664,40 @@
         <v>45170</v>
       </c>
       <c r="B34" t="n">
-        <v>248</v>
+        <v>5589</v>
       </c>
       <c r="C34" t="n">
-        <v>175</v>
+        <v>9922</v>
       </c>
       <c r="D34" t="n">
-        <v>1128</v>
+        <v>5173</v>
       </c>
       <c r="E34" t="n">
-        <v>899</v>
+        <v>5239</v>
       </c>
       <c r="F34" t="n">
-        <v>1457</v>
+        <v>6298</v>
       </c>
       <c r="G34" t="n">
-        <v>47</v>
+        <v>675</v>
       </c>
       <c r="H34" t="n">
-        <v>135</v>
+        <v>1830</v>
       </c>
       <c r="I34" t="n">
-        <v>113</v>
+        <v>632</v>
       </c>
       <c r="J34" t="n">
-        <v>529</v>
+        <v>472</v>
       </c>
       <c r="K34" t="n">
-        <v>78</v>
+        <v>5107</v>
       </c>
       <c r="L34" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="M34" t="n">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35">
@@ -3705,40 +3705,40 @@
         <v>45200</v>
       </c>
       <c r="B35" t="n">
-        <v>169</v>
+        <v>4003</v>
       </c>
       <c r="C35" t="n">
-        <v>205</v>
+        <v>8196</v>
       </c>
       <c r="D35" t="n">
-        <v>1168</v>
+        <v>3843</v>
       </c>
       <c r="E35" t="n">
-        <v>757</v>
+        <v>4078</v>
       </c>
       <c r="F35" t="n">
-        <v>1166</v>
+        <v>6542</v>
       </c>
       <c r="G35" t="n">
-        <v>19</v>
+        <v>662</v>
       </c>
       <c r="H35" t="n">
-        <v>134</v>
+        <v>1109</v>
       </c>
       <c r="I35" t="n">
-        <v>129</v>
+        <v>611</v>
       </c>
       <c r="J35" t="n">
-        <v>793</v>
+        <v>356</v>
       </c>
       <c r="K35" t="n">
-        <v>166</v>
+        <v>3091</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="M35" t="n">
-        <v>6</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36">
@@ -3746,40 +3746,40 @@
         <v>45231</v>
       </c>
       <c r="B36" t="n">
-        <v>238</v>
+        <v>7408</v>
       </c>
       <c r="C36" t="n">
-        <v>197</v>
+        <v>13607</v>
       </c>
       <c r="D36" t="n">
-        <v>630</v>
+        <v>5567</v>
       </c>
       <c r="E36" t="n">
-        <v>679</v>
+        <v>4085</v>
       </c>
       <c r="F36" t="n">
-        <v>1020</v>
+        <v>8184</v>
       </c>
       <c r="G36" t="n">
-        <v>46</v>
+        <v>555</v>
       </c>
       <c r="H36" t="n">
-        <v>312</v>
+        <v>1725</v>
       </c>
       <c r="I36" t="n">
-        <v>94</v>
+        <v>868</v>
       </c>
       <c r="J36" t="n">
-        <v>700</v>
+        <v>460</v>
       </c>
       <c r="K36" t="n">
-        <v>71</v>
+        <v>6833</v>
       </c>
       <c r="L36" t="n">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="M36" t="n">
-        <v>10</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37">
@@ -3787,40 +3787,40 @@
         <v>45261</v>
       </c>
       <c r="B37" t="n">
-        <v>329</v>
+        <v>9629</v>
       </c>
       <c r="C37" t="n">
-        <v>930</v>
+        <v>10950</v>
       </c>
       <c r="D37" t="n">
-        <v>845</v>
+        <v>8494</v>
       </c>
       <c r="E37" t="n">
-        <v>861</v>
+        <v>5750</v>
       </c>
       <c r="F37" t="n">
-        <v>1230</v>
+        <v>7451</v>
       </c>
       <c r="G37" t="n">
-        <v>24</v>
+        <v>499</v>
       </c>
       <c r="H37" t="n">
-        <v>139</v>
+        <v>2920</v>
       </c>
       <c r="I37" t="n">
-        <v>168</v>
+        <v>660</v>
       </c>
       <c r="J37" t="n">
-        <v>762</v>
+        <v>1028</v>
       </c>
       <c r="K37" t="n">
-        <v>94</v>
+        <v>4001</v>
       </c>
       <c r="L37" t="n">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="M37" t="n">
-        <v>9</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38">
@@ -3828,40 +3828,40 @@
         <v>45292</v>
       </c>
       <c r="B38" t="n">
-        <v>116</v>
+        <v>1584</v>
       </c>
       <c r="C38" t="n">
-        <v>377</v>
+        <v>5223</v>
       </c>
       <c r="D38" t="n">
-        <v>1072</v>
+        <v>1194</v>
       </c>
       <c r="E38" t="n">
-        <v>751</v>
+        <v>1146</v>
       </c>
       <c r="F38" t="n">
-        <v>420</v>
+        <v>3083</v>
       </c>
       <c r="G38" t="n">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="H38" t="n">
-        <v>144</v>
+        <v>1244</v>
       </c>
       <c r="I38" t="n">
-        <v>120</v>
+        <v>187</v>
       </c>
       <c r="J38" t="n">
-        <v>400</v>
+        <v>77</v>
       </c>
       <c r="K38" t="n">
-        <v>66</v>
+        <v>981</v>
       </c>
       <c r="L38" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="M38" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3881,7 +3881,7 @@
     <col min="1" max="1" width="5.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="9.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="9.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="5.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="6.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="11.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="16.71" hidden="0" customWidth="1"/>
     <col min="7" max="7" width="15.71" hidden="0" customWidth="1"/>
@@ -3927,31 +3927,31 @@
         <v>44197</v>
       </c>
       <c r="B2" t="n">
-        <v>393</v>
+        <v>7969</v>
       </c>
       <c r="C2" t="n">
-        <v>196</v>
+        <v>23259</v>
       </c>
       <c r="D2" t="n">
-        <v>197</v>
+        <v>-15290</v>
       </c>
       <c r="E2" t="n">
-        <v>0.188339114466435</v>
+        <v>-0.41106309852952</v>
       </c>
       <c r="F2" t="n">
-        <v>188</v>
+        <v>4589</v>
       </c>
       <c r="G2" t="n">
-        <v>108</v>
+        <v>1330</v>
       </c>
       <c r="H2" t="n">
-        <v>5828</v>
+        <v>43585</v>
       </c>
       <c r="I2" t="n">
-        <v>184</v>
+        <v>2431</v>
       </c>
       <c r="J2" t="n">
-        <v>77</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="3">
@@ -3959,31 +3959,31 @@
         <v>44228</v>
       </c>
       <c r="B3" t="n">
-        <v>389</v>
+        <v>4990</v>
       </c>
       <c r="C3" t="n">
-        <v>223</v>
+        <v>13380</v>
       </c>
       <c r="D3" t="n">
-        <v>166</v>
+        <v>-8390</v>
       </c>
       <c r="E3" t="n">
-        <v>0.184440804621528</v>
+        <v>-0.361435007658285</v>
       </c>
       <c r="F3" t="n">
-        <v>171</v>
+        <v>2646</v>
       </c>
       <c r="G3" t="n">
-        <v>69</v>
+        <v>656</v>
       </c>
       <c r="H3" t="n">
-        <v>3672</v>
+        <v>22420</v>
       </c>
       <c r="I3" t="n">
-        <v>81</v>
+        <v>1293</v>
       </c>
       <c r="J3" t="n">
-        <v>112</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="4">
@@ -3991,31 +3991,31 @@
         <v>44256</v>
       </c>
       <c r="B4" t="n">
-        <v>471</v>
+        <v>5944</v>
       </c>
       <c r="C4" t="n">
-        <v>266</v>
+        <v>18587</v>
       </c>
       <c r="D4" t="n">
-        <v>205</v>
+        <v>-12643</v>
       </c>
       <c r="E4" t="n">
-        <v>0.198120596558635</v>
+        <v>-0.392489172899277</v>
       </c>
       <c r="F4" t="n">
-        <v>175</v>
+        <v>3515</v>
       </c>
       <c r="G4" t="n">
-        <v>75</v>
+        <v>1180</v>
       </c>
       <c r="H4" t="n">
-        <v>3715</v>
+        <v>25676</v>
       </c>
       <c r="I4" t="n">
-        <v>164</v>
+        <v>1618</v>
       </c>
       <c r="J4" t="n">
-        <v>71</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="5">
@@ -4023,31 +4023,31 @@
         <v>44287</v>
       </c>
       <c r="B5" t="n">
-        <v>417</v>
+        <v>6544</v>
       </c>
       <c r="C5" t="n">
-        <v>205</v>
+        <v>13042</v>
       </c>
       <c r="D5" t="n">
-        <v>212</v>
+        <v>-6498</v>
       </c>
       <c r="E5" t="n">
-        <v>0.203196786412512</v>
+        <v>-0.290337717805331</v>
       </c>
       <c r="F5" t="n">
-        <v>136</v>
+        <v>3195</v>
       </c>
       <c r="G5" t="n">
-        <v>39</v>
+        <v>867</v>
       </c>
       <c r="H5" t="n">
-        <v>3184</v>
+        <v>20869</v>
       </c>
       <c r="I5" t="n">
-        <v>107</v>
+        <v>1185</v>
       </c>
       <c r="J5" t="n">
-        <v>137</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="6">
@@ -4055,31 +4055,31 @@
         <v>44317</v>
       </c>
       <c r="B6" t="n">
-        <v>268</v>
+        <v>5883</v>
       </c>
       <c r="C6" t="n">
-        <v>140</v>
+        <v>8909</v>
       </c>
       <c r="D6" t="n">
-        <v>128</v>
+        <v>-3026</v>
       </c>
       <c r="E6" t="n">
-        <v>0.110855602730603</v>
+        <v>-0.230515714691584</v>
       </c>
       <c r="F6" t="n">
-        <v>87</v>
+        <v>2779</v>
       </c>
       <c r="G6" t="n">
-        <v>58</v>
+        <v>632</v>
       </c>
       <c r="H6" t="n">
-        <v>3323</v>
+        <v>16448</v>
       </c>
       <c r="I6" t="n">
-        <v>110</v>
+        <v>864</v>
       </c>
       <c r="J6" t="n">
-        <v>91</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="7">
@@ -4087,31 +4087,31 @@
         <v>44348</v>
       </c>
       <c r="B7" t="n">
-        <v>320</v>
+        <v>6401</v>
       </c>
       <c r="C7" t="n">
-        <v>211</v>
+        <v>20424</v>
       </c>
       <c r="D7" t="n">
-        <v>109</v>
+        <v>-14023</v>
       </c>
       <c r="E7" t="n">
-        <v>0.172477108406428</v>
+        <v>-0.501841537933509</v>
       </c>
       <c r="F7" t="n">
-        <v>94</v>
+        <v>3441</v>
       </c>
       <c r="G7" t="n">
-        <v>30</v>
+        <v>1030</v>
       </c>
       <c r="H7" t="n">
-        <v>2238</v>
+        <v>18540</v>
       </c>
       <c r="I7" t="n">
-        <v>55</v>
+        <v>1211</v>
       </c>
       <c r="J7" t="n">
-        <v>53</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="8">
@@ -4119,31 +4119,31 @@
         <v>44378</v>
       </c>
       <c r="B8" t="n">
-        <v>483</v>
+        <v>5492</v>
       </c>
       <c r="C8" t="n">
-        <v>226</v>
+        <v>18746</v>
       </c>
       <c r="D8" t="n">
-        <v>257</v>
+        <v>-13254</v>
       </c>
       <c r="E8" t="n">
-        <v>0.238468286099865</v>
+        <v>-0.504943405396033</v>
       </c>
       <c r="F8" t="n">
-        <v>122</v>
+        <v>3153</v>
       </c>
       <c r="G8" t="n">
-        <v>31</v>
+        <v>747</v>
       </c>
       <c r="H8" t="n">
-        <v>3952</v>
+        <v>22365</v>
       </c>
       <c r="I8" t="n">
-        <v>100</v>
+        <v>894</v>
       </c>
       <c r="J8" t="n">
-        <v>132</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="9">
@@ -4151,31 +4151,31 @@
         <v>44409</v>
       </c>
       <c r="B9" t="n">
-        <v>212</v>
+        <v>1707</v>
       </c>
       <c r="C9" t="n">
-        <v>195</v>
+        <v>4965</v>
       </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>-3258</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0779825053519444</v>
+        <v>-0.457247589957432</v>
       </c>
       <c r="F9" t="n">
-        <v>103</v>
+        <v>984</v>
       </c>
       <c r="G9" t="n">
-        <v>48</v>
+        <v>310</v>
       </c>
       <c r="H9" t="n">
-        <v>3117</v>
+        <v>7568</v>
       </c>
       <c r="I9" t="n">
-        <v>116</v>
+        <v>487</v>
       </c>
       <c r="J9" t="n">
-        <v>99</v>
+        <v>928</v>
       </c>
     </row>
     <row r="10">
@@ -4183,31 +4183,31 @@
         <v>44440</v>
       </c>
       <c r="B10" t="n">
-        <v>437</v>
+        <v>3305</v>
       </c>
       <c r="C10" t="n">
-        <v>229</v>
+        <v>9782</v>
       </c>
       <c r="D10" t="n">
-        <v>208</v>
+        <v>-6477</v>
       </c>
       <c r="E10" t="n">
-        <v>0.177161855733284</v>
+        <v>-0.431211830737791</v>
       </c>
       <c r="F10" t="n">
-        <v>134</v>
+        <v>1713</v>
       </c>
       <c r="G10" t="n">
-        <v>40</v>
+        <v>467</v>
       </c>
       <c r="H10" t="n">
-        <v>3467</v>
+        <v>14817</v>
       </c>
       <c r="I10" t="n">
-        <v>78</v>
+        <v>643</v>
       </c>
       <c r="J10" t="n">
-        <v>72</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="11">
@@ -4215,31 +4215,31 @@
         <v>44470</v>
       </c>
       <c r="B11" t="n">
-        <v>531</v>
+        <v>5614</v>
       </c>
       <c r="C11" t="n">
-        <v>223</v>
+        <v>15810</v>
       </c>
       <c r="D11" t="n">
-        <v>308</v>
+        <v>-10196</v>
       </c>
       <c r="E11" t="n">
-        <v>0.172277306027306</v>
+        <v>-0.398224934341634</v>
       </c>
       <c r="F11" t="n">
-        <v>192</v>
+        <v>3114</v>
       </c>
       <c r="G11" t="n">
-        <v>116</v>
+        <v>635</v>
       </c>
       <c r="H11" t="n">
-        <v>6075</v>
+        <v>20413</v>
       </c>
       <c r="I11" t="n">
-        <v>171</v>
+        <v>1077</v>
       </c>
       <c r="J11" t="n">
-        <v>116</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="12">
@@ -4247,31 +4247,31 @@
         <v>44501</v>
       </c>
       <c r="B12" t="n">
-        <v>392</v>
+        <v>5428</v>
       </c>
       <c r="C12" t="n">
-        <v>229</v>
+        <v>20645</v>
       </c>
       <c r="D12" t="n">
-        <v>163</v>
+        <v>-15217</v>
       </c>
       <c r="E12" t="n">
-        <v>0.160985742956186</v>
+        <v>-0.530814074740009</v>
       </c>
       <c r="F12" t="n">
-        <v>169</v>
+        <v>2941</v>
       </c>
       <c r="G12" t="n">
-        <v>130</v>
+        <v>725</v>
       </c>
       <c r="H12" t="n">
-        <v>4409</v>
+        <v>22931</v>
       </c>
       <c r="I12" t="n">
-        <v>95</v>
+        <v>1258</v>
       </c>
       <c r="J12" t="n">
-        <v>87</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="13">
@@ -4279,31 +4279,31 @@
         <v>44531</v>
       </c>
       <c r="B13" t="n">
-        <v>554</v>
+        <v>4718</v>
       </c>
       <c r="C13" t="n">
-        <v>248</v>
+        <v>13903</v>
       </c>
       <c r="D13" t="n">
-        <v>306</v>
+        <v>-9185</v>
       </c>
       <c r="E13" t="n">
-        <v>0.281239960349198</v>
+        <v>-0.406891768124288</v>
       </c>
       <c r="F13" t="n">
-        <v>183</v>
+        <v>2502</v>
       </c>
       <c r="G13" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="H13" t="n">
-        <v>4709</v>
+        <v>17841</v>
       </c>
       <c r="I13" t="n">
-        <v>111</v>
+        <v>1020</v>
       </c>
       <c r="J13" t="n">
-        <v>115</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="14">
@@ -4311,31 +4311,31 @@
         <v>44562</v>
       </c>
       <c r="B14" t="n">
-        <v>370</v>
+        <v>3614</v>
       </c>
       <c r="C14" t="n">
-        <v>161</v>
+        <v>10040</v>
       </c>
       <c r="D14" t="n">
-        <v>209</v>
+        <v>-6426</v>
       </c>
       <c r="E14" t="n">
-        <v>0.13853976373158</v>
+        <v>-0.429983200851101</v>
       </c>
       <c r="F14" t="n">
-        <v>205</v>
+        <v>1747</v>
       </c>
       <c r="G14" t="n">
-        <v>74</v>
+        <v>695</v>
       </c>
       <c r="H14" t="n">
-        <v>4745</v>
+        <v>17458</v>
       </c>
       <c r="I14" t="n">
-        <v>173</v>
+        <v>914</v>
       </c>
       <c r="J14" t="n">
-        <v>152</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="15">
@@ -4343,31 +4343,31 @@
         <v>44593</v>
       </c>
       <c r="B15" t="n">
-        <v>638</v>
+        <v>6147</v>
       </c>
       <c r="C15" t="n">
-        <v>287</v>
+        <v>19359</v>
       </c>
       <c r="D15" t="n">
-        <v>351</v>
+        <v>-13212</v>
       </c>
       <c r="E15" t="n">
-        <v>0.247977357238343</v>
+        <v>-0.515828102486549</v>
       </c>
       <c r="F15" t="n">
-        <v>151</v>
+        <v>3355</v>
       </c>
       <c r="G15" t="n">
-        <v>128</v>
+        <v>1098</v>
       </c>
       <c r="H15" t="n">
-        <v>4908</v>
+        <v>27836</v>
       </c>
       <c r="I15" t="n">
-        <v>154</v>
+        <v>1868</v>
       </c>
       <c r="J15" t="n">
-        <v>97</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="16">
@@ -4375,31 +4375,31 @@
         <v>44621</v>
       </c>
       <c r="B16" t="n">
-        <v>517</v>
+        <v>3576</v>
       </c>
       <c r="C16" t="n">
-        <v>191</v>
+        <v>10525</v>
       </c>
       <c r="D16" t="n">
-        <v>326</v>
+        <v>-6949</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2655726825229</v>
+        <v>-0.416756485417835</v>
       </c>
       <c r="F16" t="n">
-        <v>210</v>
+        <v>2340</v>
       </c>
       <c r="G16" t="n">
-        <v>105</v>
+        <v>596</v>
       </c>
       <c r="H16" t="n">
-        <v>4067</v>
+        <v>17813</v>
       </c>
       <c r="I16" t="n">
-        <v>110</v>
+        <v>1460</v>
       </c>
       <c r="J16" t="n">
-        <v>143</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="17">
@@ -4407,31 +4407,31 @@
         <v>44652</v>
       </c>
       <c r="B17" t="n">
-        <v>743</v>
+        <v>3593</v>
       </c>
       <c r="C17" t="n">
-        <v>207</v>
+        <v>9620</v>
       </c>
       <c r="D17" t="n">
-        <v>536</v>
+        <v>-6027</v>
       </c>
       <c r="E17" t="n">
-        <v>0.260358681731128</v>
+        <v>-0.369634601402268</v>
       </c>
       <c r="F17" t="n">
-        <v>216</v>
+        <v>1644</v>
       </c>
       <c r="G17" t="n">
-        <v>83</v>
+        <v>490</v>
       </c>
       <c r="H17" t="n">
-        <v>5155</v>
+        <v>16203</v>
       </c>
       <c r="I17" t="n">
-        <v>110</v>
+        <v>720</v>
       </c>
       <c r="J17" t="n">
-        <v>81</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="18">
@@ -4439,31 +4439,31 @@
         <v>44682</v>
       </c>
       <c r="B18" t="n">
-        <v>506</v>
+        <v>4404</v>
       </c>
       <c r="C18" t="n">
-        <v>142</v>
+        <v>9322</v>
       </c>
       <c r="D18" t="n">
-        <v>364</v>
+        <v>-4918</v>
       </c>
       <c r="E18" t="n">
-        <v>0.215263367916999</v>
+        <v>-0.32088648282275</v>
       </c>
       <c r="F18" t="n">
-        <v>200</v>
+        <v>2330</v>
       </c>
       <c r="G18" t="n">
-        <v>94</v>
+        <v>711</v>
       </c>
       <c r="H18" t="n">
-        <v>4564</v>
+        <v>14386</v>
       </c>
       <c r="I18" t="n">
-        <v>181</v>
+        <v>754</v>
       </c>
       <c r="J18" t="n">
-        <v>43</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="19">
@@ -4471,31 +4471,31 @@
         <v>44713</v>
       </c>
       <c r="B19" t="n">
-        <v>437</v>
+        <v>4190</v>
       </c>
       <c r="C19" t="n">
-        <v>499</v>
+        <v>14116</v>
       </c>
       <c r="D19" t="n">
-        <v>-62</v>
+        <v>-9926</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0656697270982985</v>
+        <v>-0.466182249538246</v>
       </c>
       <c r="F19" t="n">
-        <v>190</v>
+        <v>2380</v>
       </c>
       <c r="G19" t="n">
-        <v>112</v>
+        <v>487</v>
       </c>
       <c r="H19" t="n">
-        <v>4911</v>
+        <v>15845</v>
       </c>
       <c r="I19" t="n">
-        <v>131</v>
+        <v>805</v>
       </c>
       <c r="J19" t="n">
-        <v>49</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="20">
@@ -4503,31 +4503,31 @@
         <v>44743</v>
       </c>
       <c r="B20" t="n">
-        <v>448</v>
+        <v>4340</v>
       </c>
       <c r="C20" t="n">
-        <v>180</v>
+        <v>10890</v>
       </c>
       <c r="D20" t="n">
-        <v>268</v>
+        <v>-6550</v>
       </c>
       <c r="E20" t="n">
-        <v>0.234743681230457</v>
+        <v>-0.426936700191022</v>
       </c>
       <c r="F20" t="n">
-        <v>165</v>
+        <v>2057</v>
       </c>
       <c r="G20" t="n">
-        <v>107</v>
+        <v>431</v>
       </c>
       <c r="H20" t="n">
-        <v>3935</v>
+        <v>13995</v>
       </c>
       <c r="I20" t="n">
-        <v>146</v>
+        <v>1007</v>
       </c>
       <c r="J20" t="n">
-        <v>77</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="21">
@@ -4535,31 +4535,31 @@
         <v>44774</v>
       </c>
       <c r="B21" t="n">
-        <v>244</v>
+        <v>3503</v>
       </c>
       <c r="C21" t="n">
-        <v>123</v>
+        <v>11951</v>
       </c>
       <c r="D21" t="n">
-        <v>121</v>
+        <v>-8448</v>
       </c>
       <c r="E21" t="n">
-        <v>0.137642884229915</v>
+        <v>-0.478511495369766</v>
       </c>
       <c r="F21" t="n">
-        <v>79</v>
+        <v>1686</v>
       </c>
       <c r="G21" t="n">
-        <v>45</v>
+        <v>639</v>
       </c>
       <c r="H21" t="n">
-        <v>3539</v>
+        <v>14133</v>
       </c>
       <c r="I21" t="n">
-        <v>110</v>
+        <v>1379</v>
       </c>
       <c r="J21" t="n">
-        <v>54</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="22">
@@ -4567,31 +4567,31 @@
         <v>44805</v>
       </c>
       <c r="B22" t="n">
-        <v>276</v>
+        <v>3533</v>
       </c>
       <c r="C22" t="n">
-        <v>149</v>
+        <v>13656</v>
       </c>
       <c r="D22" t="n">
-        <v>127</v>
+        <v>-10123</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0957402075049134</v>
+        <v>-0.571431927484817</v>
       </c>
       <c r="F22" t="n">
-        <v>148</v>
+        <v>2453</v>
       </c>
       <c r="G22" t="n">
-        <v>81</v>
+        <v>523</v>
       </c>
       <c r="H22" t="n">
-        <v>4296</v>
+        <v>16519</v>
       </c>
       <c r="I22" t="n">
-        <v>135</v>
+        <v>987</v>
       </c>
       <c r="J22" t="n">
-        <v>80</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="23">
@@ -4599,31 +4599,31 @@
         <v>44835</v>
       </c>
       <c r="B23" t="n">
-        <v>609</v>
+        <v>4693</v>
       </c>
       <c r="C23" t="n">
-        <v>425</v>
+        <v>19094</v>
       </c>
       <c r="D23" t="n">
-        <v>184</v>
+        <v>-14401</v>
       </c>
       <c r="E23" t="n">
-        <v>0.142485217281965</v>
+        <v>-0.577462498588811</v>
       </c>
       <c r="F23" t="n">
-        <v>158</v>
+        <v>2766</v>
       </c>
       <c r="G23" t="n">
-        <v>132</v>
+        <v>741</v>
       </c>
       <c r="H23" t="n">
-        <v>8607</v>
+        <v>19614</v>
       </c>
       <c r="I23" t="n">
-        <v>194</v>
+        <v>1135</v>
       </c>
       <c r="J23" t="n">
-        <v>111</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="24">
@@ -4631,31 +4631,31 @@
         <v>44866</v>
       </c>
       <c r="B24" t="n">
-        <v>441</v>
+        <v>2606</v>
       </c>
       <c r="C24" t="n">
-        <v>383</v>
+        <v>8953</v>
       </c>
       <c r="D24" t="n">
-        <v>58</v>
+        <v>-6347</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0719486971553087</v>
+        <v>-0.463435811437338</v>
       </c>
       <c r="F24" t="n">
-        <v>180</v>
+        <v>1679</v>
       </c>
       <c r="G24" t="n">
-        <v>89</v>
+        <v>294</v>
       </c>
       <c r="H24" t="n">
-        <v>5459</v>
+        <v>12486</v>
       </c>
       <c r="I24" t="n">
-        <v>104</v>
+        <v>598</v>
       </c>
       <c r="J24" t="n">
-        <v>107</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="25">
@@ -4663,31 +4663,31 @@
         <v>44896</v>
       </c>
       <c r="B25" t="n">
-        <v>528</v>
+        <v>2992</v>
       </c>
       <c r="C25" t="n">
-        <v>240</v>
+        <v>9792</v>
       </c>
       <c r="D25" t="n">
-        <v>288</v>
+        <v>-6800</v>
       </c>
       <c r="E25" t="n">
-        <v>0.196573194073194</v>
+        <v>-0.406348328047194</v>
       </c>
       <c r="F25" t="n">
-        <v>145</v>
+        <v>1662</v>
       </c>
       <c r="G25" t="n">
-        <v>61</v>
+        <v>578</v>
       </c>
       <c r="H25" t="n">
-        <v>5390</v>
+        <v>12452</v>
       </c>
       <c r="I25" t="n">
-        <v>146</v>
+        <v>877</v>
       </c>
       <c r="J25" t="n">
-        <v>151</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="26">
@@ -4695,31 +4695,31 @@
         <v>44927</v>
       </c>
       <c r="B26" t="n">
-        <v>1355</v>
+        <v>3793</v>
       </c>
       <c r="C26" t="n">
-        <v>891</v>
+        <v>12067</v>
       </c>
       <c r="D26" t="n">
-        <v>464</v>
+        <v>-8274</v>
       </c>
       <c r="E26" t="n">
-        <v>0.144818472772002</v>
+        <v>-0.463736115990453</v>
       </c>
       <c r="F26" t="n">
-        <v>428</v>
+        <v>1853</v>
       </c>
       <c r="G26" t="n">
-        <v>203</v>
+        <v>653</v>
       </c>
       <c r="H26" t="n">
-        <v>9994</v>
+        <v>18061</v>
       </c>
       <c r="I26" t="n">
-        <v>302</v>
+        <v>885</v>
       </c>
       <c r="J26" t="n">
-        <v>187</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="27">
@@ -4727,31 +4727,31 @@
         <v>44958</v>
       </c>
       <c r="B27" t="n">
-        <v>436</v>
+        <v>3833</v>
       </c>
       <c r="C27" t="n">
-        <v>208</v>
+        <v>16104</v>
       </c>
       <c r="D27" t="n">
-        <v>228</v>
+        <v>-12271</v>
       </c>
       <c r="E27" t="n">
-        <v>0.150450543893996</v>
+        <v>-0.570100825511554</v>
       </c>
       <c r="F27" t="n">
-        <v>172</v>
+        <v>1972</v>
       </c>
       <c r="G27" t="n">
-        <v>66</v>
+        <v>589</v>
       </c>
       <c r="H27" t="n">
-        <v>4501</v>
+        <v>19241</v>
       </c>
       <c r="I27" t="n">
-        <v>154</v>
+        <v>798</v>
       </c>
       <c r="J27" t="n">
-        <v>106</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="28">
@@ -4759,31 +4759,31 @@
         <v>44986</v>
       </c>
       <c r="B28" t="n">
-        <v>490</v>
+        <v>5217</v>
       </c>
       <c r="C28" t="n">
-        <v>368</v>
+        <v>16846</v>
       </c>
       <c r="D28" t="n">
-        <v>122</v>
+        <v>-11629</v>
       </c>
       <c r="E28" t="n">
-        <v>0.146987439081724</v>
+        <v>-0.493633887323382</v>
       </c>
       <c r="F28" t="n">
-        <v>183</v>
+        <v>2760</v>
       </c>
       <c r="G28" t="n">
-        <v>116</v>
+        <v>719</v>
       </c>
       <c r="H28" t="n">
-        <v>5445</v>
+        <v>20712</v>
       </c>
       <c r="I28" t="n">
-        <v>218</v>
+        <v>1135</v>
       </c>
       <c r="J28" t="n">
-        <v>130</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="29">
@@ -4791,31 +4791,31 @@
         <v>45017</v>
       </c>
       <c r="B29" t="n">
-        <v>857</v>
+        <v>4074</v>
       </c>
       <c r="C29" t="n">
-        <v>1106</v>
+        <v>14460</v>
       </c>
       <c r="D29" t="n">
-        <v>-249</v>
+        <v>-10386</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0887025639019259</v>
+        <v>-0.528429619646142</v>
       </c>
       <c r="F29" t="n">
-        <v>331</v>
+        <v>2202</v>
       </c>
       <c r="G29" t="n">
-        <v>227</v>
+        <v>481</v>
       </c>
       <c r="H29" t="n">
-        <v>8302</v>
+        <v>16978</v>
       </c>
       <c r="I29" t="n">
-        <v>202</v>
+        <v>1005</v>
       </c>
       <c r="J29" t="n">
-        <v>145</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="30">
@@ -4823,31 +4823,31 @@
         <v>45047</v>
       </c>
       <c r="B30" t="n">
-        <v>977</v>
+        <v>2745</v>
       </c>
       <c r="C30" t="n">
-        <v>1769</v>
+        <v>8069</v>
       </c>
       <c r="D30" t="n">
-        <v>-792</v>
+        <v>-5324</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0510524616669111</v>
+        <v>-0.354373443911501</v>
       </c>
       <c r="F30" t="n">
-        <v>230</v>
+        <v>1370</v>
       </c>
       <c r="G30" t="n">
-        <v>81</v>
+        <v>203</v>
       </c>
       <c r="H30" t="n">
-        <v>9643</v>
+        <v>9215</v>
       </c>
       <c r="I30" t="n">
-        <v>307</v>
+        <v>736</v>
       </c>
       <c r="J30" t="n">
-        <v>202</v>
+        <v>971</v>
       </c>
     </row>
     <row r="31">
@@ -4855,31 +4855,31 @@
         <v>45078</v>
       </c>
       <c r="B31" t="n">
-        <v>1505</v>
+        <v>3680</v>
       </c>
       <c r="C31" t="n">
-        <v>2760</v>
+        <v>10969</v>
       </c>
       <c r="D31" t="n">
-        <v>-1255</v>
+        <v>-7289</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.0618473038386703</v>
+        <v>-0.459516161623438</v>
       </c>
       <c r="F31" t="n">
-        <v>559</v>
+        <v>2011</v>
       </c>
       <c r="G31" t="n">
-        <v>146</v>
+        <v>443</v>
       </c>
       <c r="H31" t="n">
-        <v>8808</v>
+        <v>12719</v>
       </c>
       <c r="I31" t="n">
-        <v>202</v>
+        <v>865</v>
       </c>
       <c r="J31" t="n">
-        <v>171</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="32">
@@ -4887,31 +4887,31 @@
         <v>45108</v>
       </c>
       <c r="B32" t="n">
-        <v>795</v>
+        <v>6439</v>
       </c>
       <c r="C32" t="n">
-        <v>2214</v>
+        <v>17814</v>
       </c>
       <c r="D32" t="n">
-        <v>-1419</v>
+        <v>-11375</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.115168280582967</v>
+        <v>-0.500178127328412</v>
       </c>
       <c r="F32" t="n">
-        <v>360</v>
+        <v>3140</v>
       </c>
       <c r="G32" t="n">
-        <v>116</v>
+        <v>736</v>
       </c>
       <c r="H32" t="n">
-        <v>6640</v>
+        <v>21499</v>
       </c>
       <c r="I32" t="n">
-        <v>273</v>
+        <v>2072</v>
       </c>
       <c r="J32" t="n">
-        <v>192</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="33">
@@ -4919,31 +4919,31 @@
         <v>45139</v>
       </c>
       <c r="B33" t="n">
-        <v>234</v>
+        <v>1878</v>
       </c>
       <c r="C33" t="n">
-        <v>185</v>
+        <v>6191</v>
       </c>
       <c r="D33" t="n">
-        <v>49</v>
+        <v>-4313</v>
       </c>
       <c r="E33" t="n">
-        <v>0.167528814579327</v>
+        <v>-0.497465574447062</v>
       </c>
       <c r="F33" t="n">
-        <v>61</v>
+        <v>911</v>
       </c>
       <c r="G33" t="n">
-        <v>24</v>
+        <v>218</v>
       </c>
       <c r="H33" t="n">
-        <v>2316</v>
+        <v>8877</v>
       </c>
       <c r="I33" t="n">
-        <v>70</v>
+        <v>428</v>
       </c>
       <c r="J33" t="n">
-        <v>30</v>
+        <v>848</v>
       </c>
     </row>
     <row r="34">
@@ -4951,31 +4951,31 @@
         <v>45170</v>
       </c>
       <c r="B34" t="n">
-        <v>430</v>
+        <v>3205</v>
       </c>
       <c r="C34" t="n">
-        <v>216</v>
+        <v>9810</v>
       </c>
       <c r="D34" t="n">
-        <v>214</v>
+        <v>-6605</v>
       </c>
       <c r="E34" t="n">
-        <v>0.156369627291324</v>
+        <v>-0.480477298788968</v>
       </c>
       <c r="F34" t="n">
-        <v>99</v>
+        <v>1552</v>
       </c>
       <c r="G34" t="n">
-        <v>66</v>
+        <v>431</v>
       </c>
       <c r="H34" t="n">
-        <v>4099</v>
+        <v>13650</v>
       </c>
       <c r="I34" t="n">
-        <v>243</v>
+        <v>868</v>
       </c>
       <c r="J34" t="n">
-        <v>78</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="35">
@@ -4983,31 +4983,31 @@
         <v>45200</v>
       </c>
       <c r="B35" t="n">
-        <v>445</v>
+        <v>2587</v>
       </c>
       <c r="C35" t="n">
-        <v>143</v>
+        <v>6641</v>
       </c>
       <c r="D35" t="n">
-        <v>302</v>
+        <v>-4054</v>
       </c>
       <c r="E35" t="n">
-        <v>0.170364419818018</v>
+        <v>-0.371036181758303</v>
       </c>
       <c r="F35" t="n">
-        <v>147</v>
+        <v>1214</v>
       </c>
       <c r="G35" t="n">
-        <v>49</v>
+        <v>254</v>
       </c>
       <c r="H35" t="n">
-        <v>4324</v>
+        <v>11359</v>
       </c>
       <c r="I35" t="n">
-        <v>120</v>
+        <v>654</v>
       </c>
       <c r="J35" t="n">
-        <v>113</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="36">
@@ -5015,31 +5015,31 @@
         <v>45231</v>
       </c>
       <c r="B36" t="n">
-        <v>418</v>
+        <v>3862</v>
       </c>
       <c r="C36" t="n">
-        <v>179</v>
+        <v>12477</v>
       </c>
       <c r="D36" t="n">
-        <v>239</v>
+        <v>-8615</v>
       </c>
       <c r="E36" t="n">
-        <v>0.184568860710593</v>
+        <v>-0.424480005982255</v>
       </c>
       <c r="F36" t="n">
-        <v>157</v>
+        <v>2177</v>
       </c>
       <c r="G36" t="n">
-        <v>94</v>
+        <v>475</v>
       </c>
       <c r="H36" t="n">
-        <v>4110</v>
+        <v>15784</v>
       </c>
       <c r="I36" t="n">
-        <v>118</v>
+        <v>1072</v>
       </c>
       <c r="J36" t="n">
-        <v>83</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="37">
@@ -5047,31 +5047,31 @@
         <v>45261</v>
       </c>
       <c r="B37" t="n">
-        <v>620</v>
+        <v>3466</v>
       </c>
       <c r="C37" t="n">
-        <v>606</v>
+        <v>15185</v>
       </c>
       <c r="D37" t="n">
-        <v>14</v>
+        <v>-11719</v>
       </c>
       <c r="E37" t="n">
-        <v>0.221920365981775</v>
+        <v>-0.553672561207468</v>
       </c>
       <c r="F37" t="n">
-        <v>256</v>
+        <v>1619</v>
       </c>
       <c r="G37" t="n">
-        <v>68</v>
+        <v>442</v>
       </c>
       <c r="H37" t="n">
-        <v>4768</v>
+        <v>15442</v>
       </c>
       <c r="I37" t="n">
-        <v>120</v>
+        <v>1015</v>
       </c>
       <c r="J37" t="n">
-        <v>112</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="38">
@@ -5079,31 +5079,31 @@
         <v>45292</v>
       </c>
       <c r="B38" t="n">
-        <v>266</v>
+        <v>1000</v>
       </c>
       <c r="C38" t="n">
-        <v>291</v>
+        <v>3199</v>
       </c>
       <c r="D38" t="n">
-        <v>-25</v>
+        <v>-2199</v>
       </c>
       <c r="E38" t="n">
-        <v>0.188889249393451</v>
+        <v>-0.490124717106653</v>
       </c>
       <c r="F38" t="n">
-        <v>60</v>
+        <v>660</v>
       </c>
       <c r="G38" t="n">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="H38" t="n">
-        <v>2804</v>
+        <v>3763</v>
       </c>
       <c r="I38" t="n">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c r="J38" t="n">
-        <v>49</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -5152,7 +5152,7 @@
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2" t="n">
-        <v>0.168979104512235</v>
+        <v>0.159213544382317</v>
       </c>
     </row>
     <row r="3">
@@ -5161,11 +5161,11 @@
       </c>
       <c r="B3"/>
       <c r="C3" t="n">
-        <v>-13.4926102308862</v>
+        <v>14.0231948977214</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
-        <v>0.153728846910665</v>
+        <v>0.155168810497823</v>
       </c>
     </row>
     <row r="4">
@@ -5173,14 +5173,14 @@
         <v>44256</v>
       </c>
       <c r="B4" t="n">
-        <v>7.68663331296122</v>
+        <v>17.7804426146196</v>
       </c>
       <c r="C4" t="n">
-        <v>13.1271433779142</v>
+        <v>21.2893728942342</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="n">
-        <v>0.176345430662469</v>
+        <v>0.202074282303509</v>
       </c>
     </row>
     <row r="5">
@@ -5188,16 +5188,16 @@
         <v>44287</v>
       </c>
       <c r="B5" t="n">
-        <v>9.69535278919794</v>
+        <v>13.6046260653152</v>
       </c>
       <c r="C5" t="n">
-        <v>-18.9231095918395</v>
+        <v>-25.3187963846515</v>
       </c>
       <c r="D5" t="n">
-        <v>-19.2885764448115</v>
+        <v>9.99377140730411</v>
       </c>
       <c r="E5" t="n">
-        <v>0.166550316475719</v>
+        <v>0.157248286773746</v>
       </c>
     </row>
     <row r="6">
@@ -5205,16 +5205,16 @@
         <v>44317</v>
       </c>
       <c r="B6" t="n">
-        <v>10.8130508635419</v>
+        <v>13.5521583657358</v>
       </c>
       <c r="C6" t="n">
-        <v>18.5281500479453</v>
+        <v>21.0380556823041</v>
       </c>
       <c r="D6" t="n">
-        <v>12.73218383402</v>
+        <v>17.0086321918869</v>
       </c>
       <c r="E6" t="n">
-        <v>0.176818303493386</v>
+        <v>0.165303393348154</v>
       </c>
     </row>
     <row r="7">
@@ -5222,16 +5222,16 @@
         <v>44348</v>
       </c>
       <c r="B7" t="n">
-        <v>9.4626328850128</v>
+        <v>10.64750985494</v>
       </c>
       <c r="C7" t="n">
-        <v>-5.9241640670467</v>
+        <v>-7.66270885260451</v>
       </c>
       <c r="D7" t="n">
-        <v>-6.31912361094089</v>
+        <v>-11.9434495549519</v>
       </c>
       <c r="E7" t="n">
-        <v>0.24218586506109</v>
+        <v>0.175523042368853</v>
       </c>
     </row>
     <row r="8">
@@ -5239,16 +5239,16 @@
         <v>44378</v>
       </c>
       <c r="B8" t="n">
-        <v>7.45736219072559</v>
+        <v>16.5804042529881</v>
       </c>
       <c r="C8" t="n">
-        <v>-8.89181870045553</v>
+        <v>-24.1095042820065</v>
       </c>
       <c r="D8" t="n">
-        <v>3.71216728044311</v>
+        <v>-10.7341574523069</v>
       </c>
       <c r="E8" t="n">
-        <v>0.188942372874928</v>
+        <v>0.162323720663389</v>
       </c>
     </row>
     <row r="9">
@@ -5256,16 +5256,16 @@
         <v>44409</v>
       </c>
       <c r="B9" t="n">
-        <v>10.5816935269164</v>
+        <v>35.6763470193673</v>
       </c>
       <c r="C9" t="n">
-        <v>-12.1859391291634</v>
+        <v>-46.1041170226582</v>
       </c>
       <c r="D9" t="n">
-        <v>-27.0019218966656</v>
+        <v>-77.8763301572693</v>
       </c>
       <c r="E9" t="n">
-        <v>0.208343662061682</v>
+        <v>0.163633216361685</v>
       </c>
     </row>
     <row r="10">
@@ -5273,16 +5273,16 @@
         <v>44440</v>
       </c>
       <c r="B10" t="n">
-        <v>7.24849049060936</v>
+        <v>24.9028373795538</v>
       </c>
       <c r="C10" t="n">
-        <v>12.893631946483</v>
+        <v>39.3695866276916</v>
       </c>
       <c r="D10" t="n">
-        <v>-8.18412588313593</v>
+        <v>-30.8440346769732</v>
       </c>
       <c r="E10" t="n">
-        <v>0.169496923477971</v>
+        <v>0.165980378694819</v>
       </c>
     </row>
     <row r="11">
@@ -5290,16 +5290,16 @@
         <v>44470</v>
       </c>
       <c r="B11" t="n">
-        <v>6.56358628586097</v>
+        <v>35.6080931154532</v>
       </c>
       <c r="C11" t="n">
-        <v>-4.31194215558801</v>
+        <v>31.709132616461</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.60424933826841</v>
+        <v>24.9746022214944</v>
       </c>
       <c r="E11" t="n">
-        <v>0.172359866212783</v>
+        <v>0.164578577509483</v>
       </c>
     </row>
     <row r="12">
@@ -5307,16 +5307,16 @@
         <v>44501</v>
       </c>
       <c r="B12" t="n">
-        <v>2.48351211117101</v>
+        <v>18.9427491588068</v>
       </c>
       <c r="C12" t="n">
-        <v>4.29112057001851</v>
+        <v>2.10041680549573</v>
       </c>
       <c r="D12" t="n">
-        <v>12.8728103609135</v>
+        <v>73.1791360496483</v>
       </c>
       <c r="E12" t="n">
-        <v>0.157293102894675</v>
+        <v>0.16027464377598</v>
       </c>
     </row>
     <row r="13">
@@ -5324,16 +5324,16 @@
         <v>44531</v>
       </c>
       <c r="B13" t="n">
-        <v>7.93329105514502</v>
+        <v>2.78280499752793</v>
       </c>
       <c r="C13" t="n">
-        <v>-15.3743559250932</v>
+        <v>3.41333255653464</v>
       </c>
       <c r="D13" t="n">
-        <v>-15.3951775106627</v>
+        <v>37.2228819784914</v>
       </c>
       <c r="E13" t="n">
-        <v>0.159654295069932</v>
+        <v>0.157282610843569</v>
       </c>
     </row>
     <row r="14">
@@ -5341,16 +5341,16 @@
         <v>44562</v>
       </c>
       <c r="B14" t="n">
-        <v>9.15955198620449</v>
+        <v>33.0834211384254</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.939180636558852</v>
+        <v>-58.9325357195533</v>
       </c>
       <c r="D14" t="n">
-        <v>-12.0224159916336</v>
+        <v>-53.418786357523</v>
       </c>
       <c r="E14" t="n">
-        <v>0.174656460450809</v>
+        <v>0.148161813982776</v>
       </c>
     </row>
     <row r="15">
@@ -5358,16 +5358,16 @@
         <v>44593</v>
       </c>
       <c r="B15" t="n">
-        <v>5.29773397212771</v>
+        <v>31.8006665811299</v>
       </c>
       <c r="C15" t="n">
-        <v>9.60941583725094</v>
+        <v>8.7523990695129</v>
       </c>
       <c r="D15" t="n">
-        <v>-6.70412072440115</v>
+        <v>-46.7668040935058</v>
       </c>
       <c r="E15" t="n">
-        <v>0.157528124357591</v>
+        <v>0.156376862580224</v>
       </c>
     </row>
     <row r="16">
@@ -5375,16 +5375,16 @@
         <v>44621</v>
       </c>
       <c r="B16" t="n">
-        <v>5.60820117216655</v>
+        <v>9.94230173248826</v>
       </c>
       <c r="C16" t="n">
-        <v>0.205292741310991</v>
+        <v>11.086488592329</v>
       </c>
       <c r="D16" t="n">
-        <v>8.87552794200308</v>
+        <v>-39.0936480577114</v>
       </c>
       <c r="E16" t="n">
-        <v>0.159402061257077</v>
+        <v>0.163764979497418</v>
       </c>
     </row>
     <row r="17">
@@ -5392,16 +5392,16 @@
         <v>44652</v>
       </c>
       <c r="B17" t="n">
-        <v>2.00963973591886</v>
+        <v>6.32047689535916</v>
       </c>
       <c r="C17" t="n">
-        <v>3.37360833409872</v>
+        <v>-0.283718407510086</v>
       </c>
       <c r="D17" t="n">
-        <v>13.1883169126607</v>
+        <v>19.5551692543318</v>
       </c>
       <c r="E17" t="n">
-        <v>0.172387743043888</v>
+        <v>0.140002626400256</v>
       </c>
     </row>
     <row r="18">
@@ -5409,16 +5409,16 @@
         <v>44682</v>
       </c>
       <c r="B18" t="n">
-        <v>7.01517507706358</v>
+        <v>4.18695652103748</v>
       </c>
       <c r="C18" t="n">
-        <v>-13.4809603128547</v>
+        <v>-7.10599859190463</v>
       </c>
       <c r="D18" t="n">
-        <v>-9.90205923744494</v>
+        <v>3.69677159291428</v>
       </c>
       <c r="E18" t="n">
-        <v>0.182499510957695</v>
+        <v>0.166756647662005</v>
       </c>
     </row>
     <row r="19">
@@ -5426,16 +5426,16 @@
         <v>44713</v>
       </c>
       <c r="B19" t="n">
-        <v>9.44846022174585</v>
+        <v>8.9236279136008</v>
       </c>
       <c r="C19" t="n">
-        <v>18.2086091872749</v>
+        <v>-10.6252232100628</v>
       </c>
       <c r="D19" t="n">
-        <v>8.10125720851897</v>
+        <v>-18.0149402094775</v>
       </c>
       <c r="E19" t="n">
-        <v>0.168627804937353</v>
+        <v>0.149059879595129</v>
       </c>
     </row>
     <row r="20">
@@ -5443,16 +5443,16 @@
         <v>44743</v>
       </c>
       <c r="B20" t="n">
-        <v>9.50353809941385</v>
+        <v>18.1725787718474</v>
       </c>
       <c r="C20" t="n">
-        <v>-13.825175574701</v>
+        <v>35.4133812207613</v>
       </c>
       <c r="D20" t="n">
-        <v>-9.09752670028072</v>
+        <v>17.6821594187939</v>
       </c>
       <c r="E20" t="n">
-        <v>0.166844724601927</v>
+        <v>0.155957913085293</v>
       </c>
     </row>
     <row r="21">
@@ -5460,16 +5460,16 @@
         <v>44774</v>
       </c>
       <c r="B21" t="n">
-        <v>10.9073731862698</v>
+        <v>36.3742894970455</v>
       </c>
       <c r="C21" t="n">
-        <v>-7.70113041576926</v>
+        <v>-72.7401907001387</v>
       </c>
       <c r="D21" t="n">
-        <v>-3.31769680319532</v>
+        <v>-47.9520326894402</v>
       </c>
       <c r="E21" t="n">
-        <v>0.16207031601635</v>
+        <v>0.163256553876793</v>
       </c>
     </row>
     <row r="22">
@@ -5477,16 +5477,16 @@
         <v>44805</v>
       </c>
       <c r="B22" t="n">
-        <v>4.15174526305055</v>
+        <v>36.3787035366409</v>
       </c>
       <c r="C22" t="n">
-        <v>6.53950717960387</v>
+        <v>34.9994364935268</v>
       </c>
       <c r="D22" t="n">
-        <v>-14.9867988108664</v>
+        <v>-2.32737298585067</v>
       </c>
       <c r="E22" t="n">
-        <v>0.171451918455907</v>
+        <v>0.156478793952656</v>
       </c>
     </row>
     <row r="23">
@@ -5494,16 +5494,16 @@
         <v>44835</v>
       </c>
       <c r="B23" t="n">
-        <v>14.5168324576234</v>
+        <v>26.9749676477461</v>
       </c>
       <c r="C23" t="n">
-        <v>21.2280301506521</v>
+        <v>18.0562407846358</v>
       </c>
       <c r="D23" t="n">
-        <v>20.0664069144867</v>
+        <v>-19.6845134219762</v>
       </c>
       <c r="E23" t="n">
-        <v>0.198002990524224</v>
+        <v>0.166083771877517</v>
       </c>
     </row>
     <row r="24">
@@ -5511,16 +5511,16 @@
         <v>44866</v>
       </c>
       <c r="B24" t="n">
-        <v>11.1431368061965</v>
+        <v>12.6648507982918</v>
       </c>
       <c r="C24" t="n">
-        <v>-4.73723486954264</v>
+        <v>-24.4123481524109</v>
       </c>
       <c r="D24" t="n">
-        <v>23.0303024607134</v>
+        <v>28.6433291257517</v>
       </c>
       <c r="E24" t="n">
-        <v>0.177362144063995</v>
+        <v>0.177202608945823</v>
       </c>
     </row>
     <row r="25">
@@ -5528,16 +5528,16 @@
         <v>44896</v>
       </c>
       <c r="B25" t="n">
-        <v>3.07506952321036</v>
+        <v>32.2128234082976</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.02801502412434</v>
+        <v>63.8397476409569</v>
       </c>
       <c r="D25" t="n">
-        <v>15.4627802569852</v>
+        <v>57.4836402731819</v>
       </c>
       <c r="E25" t="n">
-        <v>0.178312318193271</v>
+        <v>0.159315720400679</v>
       </c>
     </row>
     <row r="26">
@@ -5545,16 +5545,16 @@
         <v>44927</v>
       </c>
       <c r="B26" t="n">
-        <v>2.68917474843876</v>
+        <v>33.4804011645006</v>
       </c>
       <c r="C26" t="n">
-        <v>-4.05790361082211</v>
+        <v>-49.4177809028092</v>
       </c>
       <c r="D26" t="n">
-        <v>-9.82315350448909</v>
+        <v>-9.99038141426316</v>
       </c>
       <c r="E26" t="n">
-        <v>0.198919959678502</v>
+        <v>0.160078974480317</v>
       </c>
     </row>
     <row r="27">
@@ -5562,16 +5562,16 @@
         <v>44958</v>
       </c>
       <c r="B27" t="n">
-        <v>2.43396334238692</v>
+        <v>25.9869574634668</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.299695091438604</v>
+        <v>38.6508441382288</v>
       </c>
       <c r="D27" t="n">
-        <v>-5.38561372638505</v>
+        <v>53.0728108763765</v>
       </c>
       <c r="E27" t="n">
-        <v>0.191631367924997</v>
+        <v>0.157657017598946</v>
       </c>
     </row>
     <row r="28">
@@ -5579,16 +5579,16 @@
         <v>44986</v>
       </c>
       <c r="B28" t="n">
-        <v>0.318473161499997</v>
+        <v>29.0334169857142</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.336889141734105</v>
+        <v>18.2032615095942</v>
       </c>
       <c r="D28" t="n">
-        <v>-4.69448784399481</v>
+        <v>7.43632474501371</v>
       </c>
       <c r="E28" t="n">
-        <v>0.192641626651873</v>
+        <v>0.165017525057882</v>
       </c>
     </row>
     <row r="29">
@@ -5596,16 +5596,16 @@
         <v>45017</v>
       </c>
       <c r="B29" t="n">
-        <v>17.138577873295</v>
+        <v>16.3754812992381</v>
       </c>
       <c r="C29" t="n">
-        <v>29.8518984439699</v>
+        <v>-32.680225203048</v>
       </c>
       <c r="D29" t="n">
-        <v>29.2153142107972</v>
+        <v>24.1738804447749</v>
       </c>
       <c r="E29" t="n">
-        <v>0.177033861528056</v>
+        <v>0.169403683203712</v>
       </c>
     </row>
     <row r="30">
@@ -5613,16 +5613,16 @@
         <v>45047</v>
       </c>
       <c r="B30" t="n">
-        <v>19.5618749255762</v>
+        <v>22.1948539338184</v>
       </c>
       <c r="C30" t="n">
-        <v>6.97494051518866</v>
+        <v>-9.67597442053131</v>
       </c>
       <c r="D30" t="n">
-        <v>36.4899498174245</v>
+        <v>-24.1529381139851</v>
       </c>
       <c r="E30" t="n">
-        <v>0.19797474754766</v>
+        <v>0.185373437894627</v>
       </c>
     </row>
     <row r="31">
@@ -5630,16 +5630,16 @@
         <v>45078</v>
       </c>
       <c r="B31" t="n">
-        <v>24.8693558823876</v>
+        <v>7.82017960900382</v>
       </c>
       <c r="C31" t="n">
-        <v>39.1618819018668</v>
+        <v>15.4797571105762</v>
       </c>
       <c r="D31" t="n">
-        <v>75.9887208610254</v>
+        <v>-26.8764425130031</v>
       </c>
       <c r="E31" t="n">
-        <v>0.195412954952407</v>
+        <v>0.184964489199</v>
       </c>
     </row>
     <row r="32">
@@ -5647,16 +5647,16 @@
         <v>45108</v>
       </c>
       <c r="B32" t="n">
-        <v>25.6180843982238</v>
+        <v>12.6732601812581</v>
       </c>
       <c r="C32" t="n">
-        <v>-48.192459595209</v>
+        <v>-25.121403537687</v>
       </c>
       <c r="D32" t="n">
-        <v>-2.05563717815352</v>
+        <v>-19.3176208476421</v>
       </c>
       <c r="E32" t="n">
-        <v>0.186699391877963</v>
+        <v>0.147733388540966</v>
       </c>
     </row>
     <row r="33">
@@ -5664,16 +5664,16 @@
         <v>45139</v>
       </c>
       <c r="B33" t="n">
-        <v>50.0108894885736</v>
+        <v>18.8240976804231</v>
       </c>
       <c r="C33" t="n">
-        <v>-51.807540404791</v>
+        <v>-11.7235786131001</v>
       </c>
       <c r="D33" t="n">
-        <v>-60.8381180981332</v>
+        <v>-21.3652250402109</v>
       </c>
       <c r="E33" t="n">
-        <v>0.161728115921006</v>
+        <v>0.14601614639021</v>
       </c>
     </row>
     <row r="34">
@@ -5681,16 +5681,16 @@
         <v>45170</v>
       </c>
       <c r="B34" t="n">
-        <v>26.165022652802</v>
+        <v>7.44777008562732</v>
       </c>
       <c r="C34" t="n">
-        <v>32.291985850711</v>
+        <v>13.8195601075936</v>
       </c>
       <c r="D34" t="n">
-        <v>-67.708014149289</v>
+        <v>-23.0254220431935</v>
       </c>
       <c r="E34" t="n">
-        <v>0.198717068999677</v>
+        <v>0.150556196188784</v>
       </c>
     </row>
     <row r="35">
@@ -5698,16 +5698,16 @@
         <v>45200</v>
       </c>
       <c r="B35" t="n">
-        <v>16.5424433999664</v>
+        <v>13.0323990924029</v>
       </c>
       <c r="C35" t="n">
-        <v>-9.9107673250754</v>
+        <v>12.2290573491241</v>
       </c>
       <c r="D35" t="n">
-        <v>-29.4263218791554</v>
+        <v>14.3250388436176</v>
       </c>
       <c r="E35" t="n">
-        <v>0.182727695546567</v>
+        <v>0.158636080845664</v>
       </c>
     </row>
     <row r="36">
@@ -5715,16 +5715,16 @@
         <v>45231</v>
       </c>
       <c r="B36" t="n">
-        <v>7.70686223939769</v>
+        <v>9.41295212191744</v>
       </c>
       <c r="C36" t="n">
-        <v>-5.26810375626052</v>
+        <v>6.28097939136274</v>
       </c>
       <c r="D36" t="n">
-        <v>17.1131147693751</v>
+        <v>32.3295968480804</v>
       </c>
       <c r="E36" t="n">
-        <v>0.162408381540246</v>
+        <v>0.165777777925267</v>
       </c>
     </row>
     <row r="37">
@@ -5732,16 +5732,16 @@
         <v>45261</v>
       </c>
       <c r="B37" t="n">
-        <v>5.04819109767046</v>
+        <v>7.26241893305849</v>
       </c>
       <c r="C37" t="n">
-        <v>10.0931411111233</v>
+        <v>-14.4824542385503</v>
       </c>
       <c r="D37" t="n">
-        <v>-5.08572997021258</v>
+        <v>4.02758250193647</v>
       </c>
       <c r="E37" t="n">
-        <v>0.157440596519466</v>
+        <v>0.150438707305714</v>
       </c>
     </row>
     <row r="38">
@@ -5749,16 +5749,16 @@
         <v>45292</v>
       </c>
       <c r="B38" t="n">
-        <v>37.4999423860421</v>
+        <v>16.9535952255852</v>
       </c>
       <c r="C38" t="n">
-        <v>59.3143913215937</v>
+        <v>33.7924429603656</v>
       </c>
       <c r="D38" t="n">
-        <v>64.1394286764565</v>
+        <v>25.590968113178</v>
       </c>
       <c r="E38" t="n">
-        <v>0.18503961120702</v>
+        <v>0.201544825771687</v>
       </c>
     </row>
   </sheetData>
